--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C16CDD2-A61E-4E96-AD3E-08203F4D7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438345BC-0FA4-4306-B936-E8F7ED5CECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'B201-聯徵說明'!$A$8:$H$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$112</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="4">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="5">#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="797">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3193,12 +3193,66 @@
     <t>BadDebtCode</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>約定動工之一定期間</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarBuildingPeriod</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>LandLoanFg</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款註記</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarBuildingYM</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際興建年月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金管會111/5/27函文:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如為 110/12/17 後新辦、續貸、轉貸之購地貸款案件，本
+欄請填'Y'，否則請填'N'。(因切結一定期間內動工規範係自
+110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
+請填'N'。)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫購地貸款借
+款人切結動工之一定期間，以月數表示，如約定 18 個月動
+工，則本欄填報'18'。51 欄填報為 N，本欄請空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫實際興建年
+月'YYYMM'，若尚未興建，請填報'00000'。51 欄填報為 N，
+本欄請空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3362,6 +3416,19 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3448,7 +3515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3576,6 +3643,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3932,13 +4008,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3957,10 +4033,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
@@ -3976,8 +4052,8 @@
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -3993,10 +4069,10 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>345</v>
       </c>
@@ -4010,10 +4086,10 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -4025,10 +4101,10 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -4039,10 +4115,10 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -4053,10 +4129,10 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -5849,28 +5925,28 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>57</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="9">
-        <v>2</v>
+      <c r="B65" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>791</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="44">
+        <v>1</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="19" t="s">
-        <v>150</v>
+        <v>794</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I65" s="33">
         <v>51</v>
@@ -5880,77 +5956,75 @@
         <v>361</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <v>58</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="9">
-        <v>6</v>
+      <c r="B66" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>788</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="44">
+        <v>2</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="19" t="s">
-        <v>151</v>
+      <c r="G66" s="45" t="s">
+        <v>795</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="I66" s="33">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="J66" s="33"/>
-      <c r="K66" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <v>59</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="9">
-        <v>1</v>
+      <c r="B67" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>793</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="44">
+        <v>5</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="19" t="s">
-        <v>248</v>
+      <c r="G67" s="45" t="s">
+        <v>796</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>36</v>
+        <v>735</v>
       </c>
       <c r="I67" s="33">
-        <v>53.1</v>
+        <v>52.2</v>
       </c>
       <c r="J67" s="33"/>
       <c r="K67" s="40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -5960,28 +6034,28 @@
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="19" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="H68" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I68" s="33">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>3</v>
@@ -5991,28 +6065,28 @@
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="19" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="H69" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I69" s="33">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
@@ -6022,17 +6096,17 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="19" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="H70" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I70" s="33">
-        <v>54</v>
+        <v>53.3</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="40" t="s">
-        <v>715</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6040,61 +6114,61 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" s="33">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="40" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I72" s="33">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6102,61 +6176,61 @@
         <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I73" s="33">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="40" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I74" s="33">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6164,61 +6238,61 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I75" s="33">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I76" s="33">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6226,61 +6300,61 @@
         <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I77" s="33">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="40" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I78" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6288,61 +6362,61 @@
         <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I79" s="33">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="40" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I80" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="40" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6350,61 +6424,61 @@
         <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I81" s="33">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="40" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I82" s="33">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6412,61 +6486,61 @@
         <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I83" s="33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="40" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I84" s="33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="40" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6474,61 +6548,61 @@
         <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I85" s="33">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="40" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I86" s="33">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -6536,61 +6610,61 @@
         <v>79</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I87" s="33">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="40" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>80</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I88" s="33">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="40" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6598,72 +6672,72 @@
         <v>81</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I89" s="33">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="40" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>82</v>
       </c>
-      <c r="B90" s="42" t="s">
-        <v>302</v>
+      <c r="B90" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>762</v>
+        <v>86</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>735</v>
+        <v>50</v>
       </c>
       <c r="I90" s="33">
-        <v>74.099999999999994</v>
+        <v>73</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="40" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>83</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>757</v>
+        <v>302</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -6673,26 +6747,28 @@
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="19" t="s">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="H91" s="33" t="s">
         <v>735</v>
       </c>
-      <c r="I91" s="33" t="s">
-        <v>733</v>
+      <c r="I91" s="33">
+        <v>74.099999999999994</v>
       </c>
       <c r="J91" s="33"/>
-      <c r="K91" s="41"/>
+      <c r="K91" s="40" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="92" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>84</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -6702,55 +6778,55 @@
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H92" s="33" t="s">
         <v>735</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J92" s="33"/>
       <c r="K92" s="41"/>
     </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>85</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="19" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="H93" s="33" t="s">
-        <v>98</v>
+        <v>735</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="J93" s="33"/>
       <c r="K93" s="41"/>
     </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>86</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
@@ -6760,13 +6836,13 @@
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H94" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="41"/>
@@ -6776,10 +6852,10 @@
         <v>87</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -6789,26 +6865,26 @@
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H95" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="41"/>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>88</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -6818,26 +6894,26 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="19" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="41"/>
     </row>
-    <row r="97" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <v>89</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -6847,108 +6923,106 @@
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="19" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J97" s="33"/>
-      <c r="K97" s="40"/>
-    </row>
-    <row r="98" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="K97" s="41"/>
+    </row>
+    <row r="98" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>90</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>255</v>
+      <c r="B98" s="42" t="s">
+        <v>761</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>254</v>
+        <v>749</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E98" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="19" t="s">
-        <v>159</v>
+        <v>753</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I98" s="33">
-        <v>74.3</v>
+        <v>98</v>
+      </c>
+      <c r="I98" s="33" t="s">
+        <v>744</v>
       </c>
       <c r="J98" s="33"/>
-      <c r="K98" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K98" s="40"/>
+    </row>
+    <row r="99" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <v>91</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E99" s="9">
         <v>5</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H99" s="33" t="s">
         <v>65</v>
       </c>
       <c r="I99" s="33">
-        <v>74.400000000000006</v>
+        <v>74.3</v>
       </c>
       <c r="J99" s="33"/>
       <c r="K99" s="40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <v>92</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E100" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I100" s="33">
-        <v>74.5</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="J100" s="33"/>
       <c r="K100" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6956,30 +7030,30 @@
         <v>93</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E101" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="19" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="I101" s="33">
-        <v>74.599999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="40" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6987,225 +7061,233 @@
         <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E102" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>278</v>
+        <v>36</v>
       </c>
       <c r="I102" s="33">
-        <v>74.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E103" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19" t="s">
-        <v>783</v>
+        <v>286</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="I103" s="33">
-        <v>74.8</v>
+        <v>74.7</v>
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>279</v>
+        <v>36</v>
       </c>
       <c r="I104" s="33">
-        <v>74.900000000000006</v>
+        <v>74.8</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>97</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="19" t="s">
-        <v>281</v>
+        <v>784</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="I105" s="33" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="I105" s="33">
+        <v>74.900000000000006</v>
       </c>
       <c r="J105" s="33"/>
       <c r="K105" s="40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E106" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="19" t="s">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="I106" s="33" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>99</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E107" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="19" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I107" s="33">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="I107" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="J107" s="33"/>
       <c r="K107" s="40" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E108" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="33"/>
+      <c r="G108" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I108" s="33">
+        <v>75</v>
+      </c>
       <c r="J108" s="33"/>
-      <c r="K108" s="40"/>
+      <c r="K108" s="40" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="109" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>101</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E109" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="19"/>
@@ -7219,16 +7301,16 @@
         <v>102</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E110" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="19"/>
@@ -7242,16 +7324,16 @@
         <v>103</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E111" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="19"/>
@@ -7260,8 +7342,28 @@
       <c r="J111" s="33"/>
       <c r="K111" s="40"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="18"/>
+    <row r="112" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="23">
+        <v>104</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="9">
+        <v>6</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="18"/>
@@ -7328,6 +7430,9 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="18"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7343,7 +7448,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A112:XFD1048576 B107:F107 H107:J107 A2:XFD2 A14:B14 D14:J14 B106:J106 B82 D82:J82 B108:XFD111 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B70:J81 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 B66:J66 L66:XFD66 B67:J67 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B83:J89 L83:XFD89 L82:XFD82 L70:XFD81 B90 L90:XFD90 L97:XFD97 B98:J98 L98:XFD98 B99:J102 L99:XFD105 L106:XFD106 L107:XFD107 F90 I90:J90 J97 D97 F97 D90 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B105:J105 B103:F103 H103:J103 B104:F104 H104:J104 H56:J56 H47:I47 H48:I48" numberStoredAsText="1"/>
+    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A113:XFD1048576 B108:F108 H108:J108 A2:XFD2 A14:B14 D14:J14 B107:J107 B83 D83:J83 B109:XFD112 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B71:J82 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 L65:XFD65 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B70:J70 L70:XFD70 B84:J90 L84:XFD90 L83:XFD83 L71:XFD82 B91 L91:XFD91 L98:XFD98 B99:J99 L99:XFD99 B100:J103 L100:XFD106 L107:XFD107 L108:XFD108 F91 I91:J91 J98 D98 F98 D91 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B106:J106 B104:F104 H104:J104 B105:F105 H105:J105 H56:J56 H47:I47 H48:I48 F65 I65:J65 D67 F67 J67" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7431,7 +7536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35AD99-48A9-4F65-85E7-7D4E229BD8ED}">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
@@ -9374,7 +9479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
@@ -9392,10 +9497,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9407,8 +9512,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -9420,10 +9525,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
         <v>305</v>
       </c>
@@ -9433,10 +9538,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -9444,20 +9549,20 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
@@ -9466,10 +9571,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438345BC-0FA4-4306-B936-E8F7ED5CECC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D4C92-4951-4CBC-880A-892164DE83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'B201-聯徵說明'!$A$8:$H$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$114</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="4">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="5">#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="803">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -640,10 +640,6 @@
   </si>
   <si>
     <t>左靠，3 正常債權全額清償 ；T 債權轉讓， S債權證券化；P 不良債權主債務人自償 ， Q 不良債權從債務人代位償還 R 主、從債務人以外之第三人代位償還，G 代物償還(指債權人受領其他給付，以消滅原債權之償還)，E 債務承擔(指原有債務為第三人承擔)，D 處分擔保品 A 承受擔保品；H 債權和解，N債權拋棄 ，J 合併或業務移轉，X 債權轉讓後原債權機購買回，F 信保基金退理賠，Z 結清銷戶；如無結案狀況請填空白，勿填0。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>備用</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -3218,33 +3214,144 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫購地貸款借
+款人切結動工之一定期間，以月數表示，如約定 18 個月動
+工，則本欄填報'18'。51 欄填報為 N，本欄請空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>金管會111/5/27函文:</t>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Filler443</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+LandLoanFg</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>空白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+購地貸款註記</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+1</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定動工年月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.3 欄購地貸款註記為 Y，本欄為必填，請填寫購地貸款
+借款人切結約定動工之年月'YYYMM'，如約定 112 年 6 月
+以前應動工，則本欄填報'11206'；若因轉貸案件已動工，
+只知悉實際動工年月，無約定動工年月資料等情形，本欄
+請填報'00000'。若因額度核准尚未撥貸等原因未能確定約
+定動工年月，本欄請先填報'00000'，然確定約定動工年月
+後，即請確實填報。44.3 欄填報為 N，本欄請空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金管會111/5/27函文:如為 110/12/17 後新辦、續貸、轉貸之購地貸款案件，本
+欄請填'Y'，否則請填'N'。(因切結一定期間內動工規範係自
+110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
+請填'N'。)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.3 欄購地貸款註記為 Y，本欄為必填，請填寫實際動工
+年月'YYYMM'，若尚未動工，請填報'00000'。44.3 欄填報為
+N，本欄請空白。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreStarBuildingYM</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備用</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>如為 110/12/17 後新辦、續貸、轉貸之購地貸款案件，本
+      <t xml:space="preserve">
+購地貸款適用範圍依中央銀行之購地貸款相關規定辦理。
+如為 110/12/17 起新辦、續貸、轉貸之購地貸款案件，本
 欄請填'Y'，否則請填'N'。(因切結一定期間內動工規範係自
 110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
 請填'N'。)</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫購地貸款借
-款人切結動工之一定期間，以月數表示，如約定 18 個月動
-工，則本欄填報'18'。51 欄填報為 N，本欄請空白。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫實際興建年
-月'YYYMM'，若尚未興建，請填報'00000'。51 欄填報為 N，
-本欄請空白。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3252,7 +3359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3429,6 +3536,38 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3515,7 +3654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3664,6 +3803,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4008,13 +4177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K66" sqref="K66"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4034,14 +4203,14 @@
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="10"/>
@@ -4074,7 +4243,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -4144,7 +4313,7 @@
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -4162,17 +4331,17 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4180,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>28</v>
@@ -4197,7 +4366,7 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4205,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>29</v>
@@ -4228,7 +4397,7 @@
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4236,7 +4405,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>30</v>
@@ -4259,7 +4428,7 @@
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4267,10 +4436,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>3</v>
@@ -4280,7 +4449,7 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>36</v>
@@ -4290,7 +4459,7 @@
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4298,7 +4467,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>33</v>
@@ -4311,7 +4480,7 @@
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>36</v>
@@ -4321,7 +4490,7 @@
       </c>
       <c r="J13" s="33"/>
       <c r="K13" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4329,10 +4498,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
@@ -4352,7 +4521,7 @@
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4360,10 +4529,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
@@ -4373,13 +4542,13 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
       <c r="K15" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4387,7 +4556,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>38</v>
@@ -4410,7 +4579,7 @@
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4418,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>39</v>
@@ -4441,7 +4610,7 @@
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4449,7 +4618,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>40</v>
@@ -4472,7 +4641,7 @@
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -4480,10 +4649,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -4493,7 +4662,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>34</v>
@@ -4503,7 +4672,7 @@
       </c>
       <c r="J19" s="33"/>
       <c r="K19" s="40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4511,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>35</v>
@@ -4534,7 +4703,7 @@
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4542,7 +4711,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
@@ -4565,7 +4734,7 @@
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4573,10 +4742,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -4596,7 +4765,7 @@
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4604,10 +4773,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -4627,7 +4796,7 @@
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4635,10 +4804,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -4658,7 +4827,7 @@
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4666,10 +4835,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -4689,7 +4858,7 @@
       </c>
       <c r="J25" s="33"/>
       <c r="K25" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4697,10 +4866,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
@@ -4710,7 +4879,7 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H26" s="33" t="s">
         <v>36</v>
@@ -4720,7 +4889,7 @@
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4728,10 +4897,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
@@ -4751,7 +4920,7 @@
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
@@ -4759,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>48</v>
@@ -4772,7 +4941,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>36</v>
@@ -4782,7 +4951,7 @@
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="40" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
@@ -4790,7 +4959,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>49</v>
@@ -4803,7 +4972,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>50</v>
@@ -4813,7 +4982,7 @@
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="40" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4821,10 +4990,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
@@ -4844,7 +5013,7 @@
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4852,10 +5021,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
@@ -4865,7 +5034,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>36</v>
@@ -4875,7 +5044,7 @@
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4883,7 +5052,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>91</v>
@@ -4908,7 +5077,7 @@
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4916,7 +5085,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>92</v>
@@ -4929,7 +5098,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>94</v>
@@ -4939,7 +5108,7 @@
       </c>
       <c r="J33" s="33"/>
       <c r="K33" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4947,10 +5116,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>28</v>
@@ -4960,7 +5129,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>94</v>
@@ -4970,7 +5139,7 @@
       </c>
       <c r="J34" s="33"/>
       <c r="K34" s="40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4978,10 +5147,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>3</v>
@@ -5001,7 +5170,7 @@
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5009,10 +5178,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>28</v>
@@ -5022,7 +5191,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>93</v>
@@ -5032,7 +5201,7 @@
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5040,7 +5209,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>97</v>
@@ -5053,7 +5222,7 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>93</v>
@@ -5063,7 +5232,7 @@
       </c>
       <c r="J37" s="33"/>
       <c r="K37" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5071,10 +5240,10 @@
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>3</v>
@@ -5084,7 +5253,7 @@
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>98</v>
@@ -5094,7 +5263,7 @@
       </c>
       <c r="J38" s="33"/>
       <c r="K38" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5102,10 +5271,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>3</v>
@@ -5115,7 +5284,7 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>98</v>
@@ -5125,7 +5294,7 @@
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5133,7 +5302,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>101</v>
@@ -5156,7 +5325,7 @@
       </c>
       <c r="J40" s="33"/>
       <c r="K40" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -5164,10 +5333,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
@@ -5177,7 +5346,7 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>93</v>
@@ -5187,7 +5356,7 @@
       </c>
       <c r="J41" s="33"/>
       <c r="K41" s="40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -5195,10 +5364,10 @@
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>28</v>
@@ -5208,7 +5377,7 @@
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>93</v>
@@ -5218,7 +5387,7 @@
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -5226,7 +5395,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>102</v>
@@ -5249,7 +5418,7 @@
       </c>
       <c r="J43" s="33"/>
       <c r="K43" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5257,7 +5426,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>103</v>
@@ -5280,7 +5449,7 @@
       </c>
       <c r="J44" s="33"/>
       <c r="K44" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5288,10 +5457,10 @@
         <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>3</v>
@@ -5301,7 +5470,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>98</v>
@@ -5311,7 +5480,7 @@
       </c>
       <c r="J45" s="33"/>
       <c r="K45" s="40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5319,10 +5488,10 @@
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>3</v>
@@ -5342,7 +5511,7 @@
       </c>
       <c r="J46" s="33"/>
       <c r="K46" s="40" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5350,10 +5519,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>28</v>
@@ -5374,10 +5543,10 @@
         <v>35</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -5385,10 +5554,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>28</v>
@@ -5400,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H48" s="33" t="s">
         <v>108</v>
@@ -5409,10 +5578,10 @@
         <v>36</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K48" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5420,7 +5589,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>109</v>
@@ -5435,7 +5604,7 @@
         <v>3</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H49" s="33" t="s">
         <v>108</v>
@@ -5444,10 +5613,10 @@
         <v>37</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5455,7 +5624,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>110</v>
@@ -5479,10 +5648,10 @@
         <v>38</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -5490,10 +5659,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -5503,7 +5672,7 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H51" s="33" t="s">
         <v>55</v>
@@ -5512,10 +5681,10 @@
         <v>39</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K51" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
@@ -5523,10 +5692,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -5536,7 +5705,7 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H52" s="33" t="s">
         <v>36</v>
@@ -5548,7 +5717,7 @@
         <v>304</v>
       </c>
       <c r="K52" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
@@ -5556,10 +5725,10 @@
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>3</v>
@@ -5569,7 +5738,7 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H53" s="33" t="s">
         <v>47</v>
@@ -5579,7 +5748,7 @@
       </c>
       <c r="J53" s="33"/>
       <c r="K53" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
@@ -5587,10 +5756,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>3</v>
@@ -5600,7 +5769,7 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H54" s="33" t="s">
         <v>47</v>
@@ -5610,7 +5779,7 @@
       </c>
       <c r="J54" s="33"/>
       <c r="K54" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -5618,10 +5787,10 @@
         <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>3</v>
@@ -5631,7 +5800,7 @@
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H55" s="33" t="s">
         <v>59</v>
@@ -5641,7 +5810,7 @@
       </c>
       <c r="J55" s="33"/>
       <c r="K55" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -5649,7 +5818,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>61</v>
@@ -5662,7 +5831,7 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H56" s="33" t="s">
         <v>62</v>
@@ -5672,7 +5841,7 @@
       </c>
       <c r="J56" s="33"/>
       <c r="K56" s="40" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5680,10 +5849,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -5693,7 +5862,7 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H57" s="33" t="s">
         <v>65</v>
@@ -5703,162 +5872,160 @@
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>50</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>299</v>
+      <c r="B58" s="55" t="s">
+        <v>794</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>46</v>
+        <v>795</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="9">
-        <v>6</v>
+      <c r="E58" s="9" t="s">
+        <v>796</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>143</v>
+        <v>802</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I58" s="33">
         <v>44.3</v>
       </c>
       <c r="J58" s="33"/>
       <c r="K58" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>51</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>238</v>
+      <c r="B59" s="58" t="s">
+        <v>801</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="9">
-        <v>1</v>
+        <v>797</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="44">
+        <v>5</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="19" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I59" s="33">
-        <v>45</v>
+        <v>44.4</v>
       </c>
       <c r="J59" s="33"/>
-      <c r="K59" s="40" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="K59" s="40"/>
+    </row>
+    <row r="60" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E60" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="19" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I60" s="33">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" s="33"/>
       <c r="K60" s="40" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>53</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E61" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="19" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I61" s="33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J61" s="33"/>
       <c r="K61" s="40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="19" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I62" s="33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62" s="33"/>
       <c r="K62" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5866,30 +6033,30 @@
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="19" t="s">
-        <v>148</v>
+        <v>780</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I63" s="33">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J63" s="33"/>
       <c r="K63" s="40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5897,196 +6064,192 @@
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E64" s="9">
-        <v>5</v>
-      </c>
-      <c r="F64" s="9">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I64" s="33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J64" s="33"/>
       <c r="K64" s="40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>57</v>
       </c>
-      <c r="B65" s="43" t="s">
-        <v>790</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="44">
-        <v>1</v>
-      </c>
-      <c r="F65" s="9"/>
+      <c r="B65" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="9">
+        <v>5</v>
+      </c>
+      <c r="F65" s="9">
+        <v>2</v>
+      </c>
       <c r="G65" s="19" t="s">
-        <v>794</v>
+        <v>148</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I65" s="33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J65" s="33"/>
       <c r="K65" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
-        <v>58</v>
-      </c>
-      <c r="B66" s="43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="56" t="s">
         <v>789</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="50" t="s">
+        <v>790</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="52">
+        <v>1</v>
+      </c>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="54">
+        <v>51</v>
+      </c>
+      <c r="J66" s="33"/>
+      <c r="K66" s="40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="57" t="s">
         <v>788</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="C67" s="51" t="s">
+        <v>787</v>
+      </c>
+      <c r="D67" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E67" s="52">
         <v>2</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="45" t="s">
-        <v>795</v>
-      </c>
-      <c r="H66" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I66" s="33">
+      <c r="F67" s="52"/>
+      <c r="G67" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="H67" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="I67" s="54">
         <v>52.1</v>
       </c>
-      <c r="J66" s="33"/>
-      <c r="K66" s="40"/>
-    </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
-        <v>59</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>792</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>793</v>
-      </c>
-      <c r="D67" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="44">
-        <v>5</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="45" t="s">
-        <v>796</v>
-      </c>
-      <c r="H67" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="I67" s="33">
-        <v>52.2</v>
-      </c>
       <c r="J67" s="33"/>
-      <c r="K67" s="40" t="s">
-        <v>361</v>
-      </c>
+      <c r="K67" s="40"/>
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
-        <v>60</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="55" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="19" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I68" s="33">
-        <v>53.1</v>
+        <v>51</v>
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
-        <v>61</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>791</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>792</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="44">
+        <v>5</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="19" t="s">
-        <v>153</v>
+      <c r="G69" s="45" t="s">
+        <v>800</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>36</v>
+        <v>734</v>
       </c>
       <c r="I69" s="33">
-        <v>53.2</v>
+        <v>52</v>
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="40" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
@@ -6096,28 +6259,28 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="19" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="H70" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I70" s="33">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
@@ -6127,59 +6290,59 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H71" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I71" s="33">
-        <v>54</v>
+        <v>53.2</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="40" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="19" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I72" s="33">
-        <v>55</v>
+        <v>53.3</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="40" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>3</v>
@@ -6189,59 +6352,59 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H73" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I73" s="33">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="40" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>259</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I74" s="33">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="40" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>3</v>
@@ -6251,59 +6414,59 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H75" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I75" s="33">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="40" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I76" s="33">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
@@ -6313,59 +6476,59 @@
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H77" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I77" s="33">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="40" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I78" s="33">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="40" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -6375,59 +6538,59 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H79" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="33">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="40" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I80" s="33">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="40" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -6437,59 +6600,59 @@
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H81" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I81" s="33">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="40" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I82" s="33">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="40" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -6499,59 +6662,59 @@
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H83" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I83" s="33">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="40" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I84" s="33">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="40" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -6561,59 +6724,59 @@
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H85" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I85" s="33">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="40" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I86" s="33">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="40" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -6623,59 +6786,59 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H87" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I87" s="33">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="40" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I88" s="33">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="40" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -6685,119 +6848,121 @@
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H89" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="33">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="40" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I90" s="33">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="40" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
-        <v>83</v>
-      </c>
-      <c r="B91" s="42" t="s">
-        <v>302</v>
+        <v>81</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>762</v>
+        <v>35</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="19" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>735</v>
+        <v>36</v>
       </c>
       <c r="I91" s="33">
-        <v>74.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="J91" s="33"/>
       <c r="K91" s="40" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
-        <v>84</v>
-      </c>
-      <c r="B92" s="42" t="s">
-        <v>757</v>
+        <v>82</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>736</v>
+        <v>86</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="19" t="s">
-        <v>738</v>
+        <v>156</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="I92" s="33" t="s">
-        <v>733</v>
+        <v>50</v>
+      </c>
+      <c r="I92" s="33">
+        <v>73</v>
       </c>
       <c r="J92" s="33"/>
-      <c r="K92" s="41"/>
-    </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K92" s="40" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>758</v>
+        <v>301</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -6807,84 +6972,86 @@
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="19" t="s">
-        <v>739</v>
+        <v>181</v>
       </c>
       <c r="H93" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I93" s="33">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J93" s="33"/>
+      <c r="K93" s="40" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="23">
+        <v>84</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="I93" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="J93" s="33"/>
-      <c r="K93" s="41"/>
-    </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23">
-        <v>86</v>
-      </c>
-      <c r="B94" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>745</v>
-      </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="19" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>98</v>
+        <v>734</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="41"/>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="19" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>98</v>
+        <v>734</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="41"/>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -6894,26 +7061,26 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="19" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="41"/>
     </row>
-    <row r="97" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -6923,26 +7090,26 @@
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="19" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="41"/>
     </row>
-    <row r="98" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -6952,181 +7119,177 @@
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H98" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J98" s="33"/>
-      <c r="K98" s="40"/>
-    </row>
-    <row r="99" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="K98" s="41"/>
+    </row>
+    <row r="99" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
-        <v>91</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>255</v>
+        <v>89</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>759</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>254</v>
+        <v>747</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E99" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="19" t="s">
-        <v>159</v>
+        <v>781</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I99" s="33">
-        <v>74.3</v>
+        <v>98</v>
+      </c>
+      <c r="I99" s="33" t="s">
+        <v>742</v>
       </c>
       <c r="J99" s="33"/>
-      <c r="K99" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K99" s="41"/>
+    </row>
+    <row r="100" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
-        <v>92</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>251</v>
+        <v>90</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>760</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>250</v>
+        <v>748</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="19" t="s">
-        <v>160</v>
+        <v>752</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I100" s="33">
-        <v>74.400000000000006</v>
+        <v>98</v>
+      </c>
+      <c r="I100" s="33" t="s">
+        <v>743</v>
       </c>
       <c r="J100" s="33"/>
-      <c r="K100" s="40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="K100" s="40"/>
+    </row>
+    <row r="101" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E101" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I101" s="33">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="19" t="s">
-        <v>287</v>
+        <v>159</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="I102" s="33">
-        <v>74.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="40" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="I103" s="33">
-        <v>74.7</v>
+        <v>74.5</v>
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -7136,198 +7299,214 @@
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19" t="s">
-        <v>783</v>
+        <v>286</v>
       </c>
       <c r="H104" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I104" s="33">
-        <v>74.8</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E105" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="19" t="s">
-        <v>784</v>
+        <v>285</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I105" s="33">
-        <v>74.900000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="J105" s="33"/>
       <c r="K105" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="19" t="s">
-        <v>281</v>
+        <v>782</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="I106" s="33" t="s">
-        <v>277</v>
+        <v>36</v>
+      </c>
+      <c r="I106" s="33">
+        <v>74.8</v>
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="40" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E107" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="19" t="s">
-        <v>162</v>
+        <v>783</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I107" s="33" t="s">
-        <v>37</v>
+        <v>278</v>
+      </c>
+      <c r="I107" s="33">
+        <v>74.900000000000006</v>
       </c>
       <c r="J107" s="33"/>
       <c r="K107" s="40" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="19" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="H108" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I108" s="33">
-        <v>75</v>
+        <v>279</v>
+      </c>
+      <c r="I108" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="J108" s="33"/>
       <c r="K108" s="40" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E109" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
+      <c r="G109" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I109" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="J109" s="33"/>
-      <c r="K109" s="40"/>
-    </row>
-    <row r="110" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K109" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E110" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
+      <c r="G110" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="H110" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="33">
+        <v>75</v>
+      </c>
       <c r="J110" s="33"/>
-      <c r="K110" s="40"/>
+      <c r="K110" s="40" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="111" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7344,16 +7523,16 @@
     </row>
     <row r="112" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E112" s="9">
         <v>6</v>
@@ -7365,52 +7544,92 @@
       <c r="J112" s="33"/>
       <c r="K112" s="40"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="23">
+        <v>103</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9">
+        <v>8</v>
+      </c>
+      <c r="F113" s="9"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="40"/>
+    </row>
+    <row r="114" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="23">
+        <v>104</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="9">
+        <v>6</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="40"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="18"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="18"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="18"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -7433,6 +7652,12 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="18"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7448,7 +7673,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A113:XFD1048576 B108:F108 H108:J108 A2:XFD2 A14:B14 D14:J14 B107:J107 B83 D83:J83 B109:XFD112 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B61:F61 B59:F59 H59:J59 B71:J82 B62:F62 H62:J62 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 B58:J58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:J57 L57:XFD57 L58:XFD58 L59:XFD59 B60:F60 L60:XFD60 L61:XFD61 L62:XFD62 B63:J63 L63:XFD63 B64:J64 L64:XFD64 L65:XFD65 L67:XFD67 B68:J68 L68:XFD68 B69:J69 L69:XFD69 B70:J70 L70:XFD70 B84:J90 L84:XFD90 L83:XFD83 L71:XFD82 B91 L91:XFD91 L98:XFD98 B99:J99 L99:XFD99 B100:J103 L100:XFD106 L107:XFD107 L108:XFD108 F91 I91:J91 J98 D98 F98 D91 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H60:J60 H61:J61 B106:J106 B104:F104 H104:J104 B105:F105 H105:J105 H56:J56 H47:I47 H48:I48 F65 I65:J65 D67 F67 J67" numberStoredAsText="1"/>
+    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A115:XFD1048576 B110:F110 H110:J110 A2:XFD2 A14:B14 D14:J14 B109:J109 B85 D85:J85 B111:XFD114 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B62:F62 B60:F60 H60:J60 B73:J84 B63:F63 H63:J63 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 D58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:D57 L57:XFD57 L58:XFD58 L60:XFD60 B61:F61 L61:XFD61 L62:XFD62 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 L66:XFD66 L69:XFD69 B70:J70 L70:XFD70 B71:J71 L71:XFD71 B72:J72 L72:XFD72 B86:J92 L86:XFD92 L85:XFD85 L73:XFD84 B93 L93:XFD93 L100:XFD100 B101:J101 L101:XFD101 B102:J105 L102:XFD108 L109:XFD109 L110:XFD110 F93 I93:J93 J100 D100 F100 D93 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H61:J61 H62:J62 B108:J108 B106:F106 H106:J106 B107:F107 H107:J107 H56:J56 H47:I47 H48:I48 F66 I66:J66 D69 F69 J69 F57:J57 F58 I58:J58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7506,24 +7731,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>337</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7548,407 +7773,407 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="36" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -7973,362 +8198,362 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="35" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="35" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8353,12 +8578,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -8366,1107 +8591,1107 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="35" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="35" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="35" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="35" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="35" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="35" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="35" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="35" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -9530,7 +9755,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="10"/>
@@ -9567,7 +9792,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
       <c r="G6" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -9579,7 +9804,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
       <c r="G7" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -9602,10 +9827,10 @@
         <v>9</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -9613,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>29</v>
@@ -9637,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>30</v>
@@ -9661,7 +9886,7 @@
         <v>3.1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>31</v>
@@ -9685,7 +9910,7 @@
         <v>3.2</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>33</v>
@@ -9709,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>42</v>
@@ -9733,7 +9958,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>38</v>
@@ -9757,7 +9982,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>39</v>
@@ -9781,7 +10006,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>40</v>
@@ -9805,10 +10030,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
@@ -9829,7 +10054,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>35</v>
@@ -9853,10 +10078,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
@@ -9877,10 +10102,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
@@ -9901,10 +10126,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
@@ -9925,10 +10150,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
@@ -9949,10 +10174,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
@@ -9973,10 +10198,10 @@
         <v>15.1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
@@ -9997,10 +10222,10 @@
         <v>15.2</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
@@ -10021,7 +10246,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>48</v>
@@ -10045,7 +10270,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>49</v>
@@ -10069,10 +10294,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
@@ -10093,10 +10318,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
@@ -10117,7 +10342,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>91</v>
@@ -10141,7 +10366,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>92</v>
@@ -10154,7 +10379,7 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>94</v>
@@ -10165,10 +10390,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>28</v>
@@ -10178,7 +10403,7 @@
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>94</v>
@@ -10189,7 +10414,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>95</v>
@@ -10213,7 +10438,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>96</v>
@@ -10226,7 +10451,7 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>93</v>
@@ -10237,7 +10462,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>97</v>
@@ -10250,7 +10475,7 @@
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>93</v>
@@ -10261,7 +10486,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>99</v>
@@ -10274,7 +10499,7 @@
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>98</v>
@@ -10285,7 +10510,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>100</v>
@@ -10298,7 +10523,7 @@
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>98</v>
@@ -10309,7 +10534,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>101</v>
@@ -10333,7 +10558,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>105</v>
@@ -10357,7 +10582,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>106</v>
@@ -10381,7 +10606,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>102</v>
@@ -10405,7 +10630,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>103</v>
@@ -10429,10 +10654,10 @@
         <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>3</v>
@@ -10453,7 +10678,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>104</v>
@@ -10477,10 +10702,10 @@
         <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>28</v>
@@ -10501,10 +10726,10 @@
         <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>28</v>
@@ -10514,7 +10739,7 @@
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>108</v>
@@ -10525,7 +10750,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>109</v>
@@ -10538,7 +10763,7 @@
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>108</v>
@@ -10549,7 +10774,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>110</v>
@@ -10573,7 +10798,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>54</v>
@@ -10597,7 +10822,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>56</v>
@@ -10622,7 +10847,7 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>3</v>
@@ -10643,10 +10868,10 @@
         <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>3</v>
@@ -10667,7 +10892,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>58</v>
@@ -10691,7 +10916,7 @@
         <v>44.1</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>61</v>
@@ -10715,7 +10940,7 @@
         <v>44.2</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>64</v>
@@ -10739,7 +10964,7 @@
         <v>44.3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>46</v>
@@ -10763,10 +10988,10 @@
         <v>45</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>3</v>
@@ -10776,7 +11001,7 @@
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>36</v>
@@ -10787,10 +11012,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
@@ -10800,7 +11025,7 @@
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>34</v>
@@ -10811,7 +11036,7 @@
         <v>47</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>68</v>
@@ -10824,7 +11049,7 @@
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>50</v>
@@ -10835,10 +11060,10 @@
         <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>3</v>
@@ -10848,7 +11073,7 @@
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>36</v>
@@ -10859,7 +11084,7 @@
         <v>49</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>69</v>
@@ -10872,7 +11097,7 @@
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>51</v>
@@ -10883,10 +11108,10 @@
         <v>50</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>28</v>
@@ -10898,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>70</v>
@@ -10909,7 +11134,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>46</v>
@@ -10922,7 +11147,7 @@
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>50</v>
@@ -10933,7 +11158,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>46</v>
@@ -10946,7 +11171,7 @@
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>45</v>
@@ -10957,7 +11182,7 @@
         <v>53.1</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>71</v>
@@ -10970,7 +11195,7 @@
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>36</v>
@@ -10981,7 +11206,7 @@
         <v>53.2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>72</v>
@@ -10994,7 +11219,7 @@
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>36</v>
@@ -11005,7 +11230,7 @@
         <v>53.3</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>46</v>
@@ -11029,10 +11254,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>3</v>
@@ -11042,7 +11267,7 @@
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>36</v>
@@ -11053,7 +11278,7 @@
         <v>55</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>73</v>
@@ -11066,7 +11291,7 @@
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>34</v>
@@ -11077,7 +11302,7 @@
         <v>56</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>35</v>
@@ -11090,7 +11315,7 @@
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>36</v>
@@ -11101,7 +11326,7 @@
         <v>57</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>74</v>
@@ -11114,7 +11339,7 @@
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>50</v>
@@ -11125,7 +11350,7 @@
         <v>58</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>75</v>
@@ -11138,7 +11363,7 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>36</v>
@@ -11149,7 +11374,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>76</v>
@@ -11162,7 +11387,7 @@
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>34</v>
@@ -11173,7 +11398,7 @@
         <v>60</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>35</v>
@@ -11186,7 +11411,7 @@
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>36</v>
@@ -11197,7 +11422,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>77</v>
@@ -11210,7 +11435,7 @@
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>50</v>
@@ -11221,7 +11446,7 @@
         <v>62</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>78</v>
@@ -11234,7 +11459,7 @@
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>36</v>
@@ -11245,7 +11470,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>79</v>
@@ -11258,7 +11483,7 @@
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>34</v>
@@ -11269,7 +11494,7 @@
         <v>64</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>35</v>
@@ -11282,7 +11507,7 @@
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>36</v>
@@ -11293,7 +11518,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>80</v>
@@ -11306,7 +11531,7 @@
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>50</v>
@@ -11317,7 +11542,7 @@
         <v>66</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>81</v>
@@ -11330,7 +11555,7 @@
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>36</v>
@@ -11341,7 +11566,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>82</v>
@@ -11354,7 +11579,7 @@
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>34</v>
@@ -11365,7 +11590,7 @@
         <v>68</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>35</v>
@@ -11378,7 +11603,7 @@
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>36</v>
@@ -11389,7 +11614,7 @@
         <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>83</v>
@@ -11402,7 +11627,7 @@
       </c>
       <c r="F83" s="8"/>
       <c r="G83" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>50</v>
@@ -11413,7 +11638,7 @@
         <v>70</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>84</v>
@@ -11426,7 +11651,7 @@
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>36</v>
@@ -11437,7 +11662,7 @@
         <v>71</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>85</v>
@@ -11450,7 +11675,7 @@
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>34</v>
@@ -11461,7 +11686,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>35</v>
@@ -11474,7 +11699,7 @@
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>36</v>
@@ -11485,7 +11710,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>86</v>
@@ -11498,7 +11723,7 @@
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>50</v>
@@ -11509,7 +11734,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>46</v>
@@ -11533,7 +11758,7 @@
         <v>74.2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>46</v>
@@ -11557,10 +11782,10 @@
         <v>74.3</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
@@ -11570,7 +11795,7 @@
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>65</v>
@@ -11581,10 +11806,10 @@
         <v>74.400000000000006</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
@@ -11594,7 +11819,7 @@
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>65</v>
@@ -11605,10 +11830,10 @@
         <v>74.5</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
@@ -11618,7 +11843,7 @@
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>87</v>
@@ -11629,10 +11854,10 @@
         <v>74.599999999999994</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -11642,7 +11867,7 @@
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>36</v>
@@ -11653,10 +11878,10 @@
         <v>74.7</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>28</v>
@@ -11666,10 +11891,10 @@
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -11677,10 +11902,10 @@
         <v>74.8</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
@@ -11690,7 +11915,7 @@
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>36</v>
@@ -11701,10 +11926,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -11714,18 +11939,18 @@
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>46</v>
@@ -11738,10 +11963,10 @@
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -11749,7 +11974,7 @@
         <v>37</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>88</v>
@@ -11762,7 +11987,7 @@
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>65</v>
@@ -11773,7 +11998,7 @@
         <v>75</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>89</v>
@@ -11786,7 +12011,7 @@
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>36</v>
@@ -11794,7 +12019,7 @@
     </row>
     <row r="100" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>20</v>
@@ -11814,7 +12039,7 @@
     </row>
     <row r="101" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>22</v>
@@ -11834,7 +12059,7 @@
     </row>
     <row r="102" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>24</v>
@@ -11854,7 +12079,7 @@
     </row>
     <row r="103" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>10</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34D4C92-4951-4CBC-880A-892164DE83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83E7FB-687B-4ACF-A1B8-4AC549DC7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'B201-聯徵說明'!$A$8:$H$103</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$112</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="4">#REF!</definedName>
     <definedName name="xRng_022d11b12963469e84b20e9316243684" localSheetId="5">#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="796">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3190,14 +3190,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>約定動工之一定期間</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>StarBuildingPeriod</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>LandLoanFg</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -3211,87 +3203,6 @@
   </si>
   <si>
     <t>實際興建年月</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金管會111/5/27函文:51 欄購地貸款註記為 Y，本欄為必填，請填寫購地貸款借
-款人切結動工之一定期間，以月數表示，如約定 18 個月動
-工，則本欄填報'18'。51 欄填報為 N，本欄請空白。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Filler443</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-LandLoanFg</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>空白</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-購地貸款註記</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-1</t>
-    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -3309,13 +3220,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>金管會111/5/27函文:如為 110/12/17 後新辦、續貸、轉貸之購地貸款案件，本
-欄請填'Y'，否則請填'N'。(因切結一定期間內動工規範係自
-110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
-請填'N'。)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>44.3 欄購地貸款註記為 Y，本欄為必填，請填寫實際動工
 年月'YYYMM'，若尚未動工，請填報'00000'。44.3 欄填報為
 N，本欄請空白。</t>
@@ -3326,32 +3230,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>備用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-購地貸款適用範圍依中央銀行之購地貸款相關規定辦理。
+    <t>購地貸款適用範圍依中央銀行之購地貸款相關規定辦理。
 如為 110/12/17 起新辦、續貸、轉貸之購地貸款案件，本
 欄請填'Y'，否則請填'N'。(因切結一定期間內動工規範係自
 110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
 請填'N'。)</t>
-    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3359,7 +3242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3536,38 +3419,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3654,7 +3505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3793,6 +3644,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3803,36 +3663,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4177,13 +4007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4202,10 +4032,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
@@ -4221,8 +4051,8 @@
       <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -4238,10 +4068,10 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="8" t="s">
         <v>344</v>
       </c>
@@ -4255,10 +4085,10 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -4270,10 +4100,10 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -4284,10 +4114,10 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -4298,10 +4128,10 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -5875,25 +5705,25 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>50</v>
       </c>
-      <c r="B58" s="55" t="s">
-        <v>794</v>
+      <c r="B58" s="46" t="s">
+        <v>787</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>796</v>
+      <c r="E58" s="9">
+        <v>1</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="19" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H58" s="33" t="s">
         <v>98</v>
@@ -5910,11 +5740,11 @@
       <c r="A59" s="23">
         <v>51</v>
       </c>
-      <c r="B59" s="58" t="s">
-        <v>801</v>
+      <c r="B59" s="47" t="s">
+        <v>794</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D59" s="43" t="s">
         <v>3</v>
@@ -5924,7 +5754,7 @@
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="19" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="H59" s="33" t="s">
         <v>65</v>
@@ -6123,28 +5953,30 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="B66" s="56" t="s">
-        <v>789</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>790</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E66" s="52">
-        <v>1</v>
-      </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53" t="s">
-        <v>799</v>
-      </c>
-      <c r="H66" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="I66" s="54">
+    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>58</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9">
+        <v>3</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="33">
         <v>51</v>
       </c>
       <c r="J66" s="33"/>
@@ -6153,103 +5985,107 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="57" t="s">
-        <v>788</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>787</v>
-      </c>
-      <c r="D67" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" s="52">
-        <v>2</v>
-      </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53" t="s">
+      <c r="A67" s="23">
+        <v>59</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="44">
+        <v>5</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="45" t="s">
         <v>793</v>
       </c>
-      <c r="H67" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="I67" s="54">
-        <v>52.1</v>
+      <c r="H67" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="I67" s="33">
+        <v>52</v>
       </c>
       <c r="J67" s="33"/>
-      <c r="K67" s="40"/>
+      <c r="K67" s="40" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
-        <v>58</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="19" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I68" s="33">
-        <v>51</v>
+        <v>53.1</v>
       </c>
       <c r="J68" s="33"/>
       <c r="K68" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
-        <v>59</v>
-      </c>
-      <c r="B69" s="59" t="s">
-        <v>791</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>792</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="44">
-        <v>5</v>
+        <v>61</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="45" t="s">
-        <v>800</v>
+      <c r="G69" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>734</v>
+        <v>36</v>
       </c>
       <c r="I69" s="33">
-        <v>52</v>
+        <v>53.2</v>
       </c>
       <c r="J69" s="33"/>
       <c r="K69" s="40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>3</v>
@@ -6259,28 +6095,28 @@
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="19" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="H70" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I70" s="33">
-        <v>53.1</v>
+        <v>53.3</v>
       </c>
       <c r="J70" s="33"/>
       <c r="K70" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>3</v>
@@ -6290,59 +6126,59 @@
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H71" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I71" s="33">
-        <v>53.2</v>
+        <v>54</v>
       </c>
       <c r="J71" s="33"/>
       <c r="K71" s="40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="19" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="H72" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I72" s="33">
-        <v>53.3</v>
+        <v>55</v>
       </c>
       <c r="J72" s="33"/>
       <c r="K72" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>3</v>
@@ -6352,59 +6188,59 @@
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H73" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I73" s="33">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J73" s="33"/>
       <c r="K73" s="40" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H74" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I74" s="33">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J74" s="33"/>
       <c r="K74" s="40" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>3</v>
@@ -6414,59 +6250,59 @@
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H75" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I75" s="33">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J75" s="33"/>
       <c r="K75" s="40" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H76" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I76" s="33">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J76" s="33"/>
       <c r="K76" s="40" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>3</v>
@@ -6476,59 +6312,59 @@
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H77" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I77" s="33">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J77" s="33"/>
       <c r="K77" s="40" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H78" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I78" s="33">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J78" s="33"/>
       <c r="K78" s="40" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>3</v>
@@ -6538,59 +6374,59 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H79" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I79" s="33">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J79" s="33"/>
       <c r="K79" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H80" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I80" s="33">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J80" s="33"/>
       <c r="K80" s="40" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -6600,59 +6436,59 @@
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H81" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I81" s="33">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J81" s="33"/>
       <c r="K81" s="40" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I82" s="33">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J82" s="33"/>
       <c r="K82" s="40" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A83" s="23">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>35</v>
+        <v>343</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>3</v>
@@ -6662,59 +6498,59 @@
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H83" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I83" s="33">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J83" s="33"/>
       <c r="K83" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H84" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I84" s="33">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J84" s="33"/>
       <c r="K84" s="40" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>343</v>
+        <v>35</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>3</v>
@@ -6724,59 +6560,59 @@
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H85" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I85" s="33">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J85" s="33"/>
       <c r="K85" s="40" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I86" s="33">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J86" s="33"/>
       <c r="K86" s="40" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>3</v>
@@ -6786,59 +6622,59 @@
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H87" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I87" s="33">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J87" s="33"/>
       <c r="K87" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I88" s="33">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J88" s="33"/>
       <c r="K88" s="40" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>3</v>
@@ -6848,121 +6684,119 @@
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H89" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I89" s="33">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J89" s="33"/>
       <c r="K89" s="40" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I90" s="33">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J90" s="33"/>
       <c r="K90" s="40" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
-        <v>81</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>274</v>
+        <v>83</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>301</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>35</v>
+        <v>761</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="19" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="H91" s="33" t="s">
-        <v>36</v>
+        <v>734</v>
       </c>
       <c r="I91" s="33">
-        <v>72</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="J91" s="33"/>
       <c r="K91" s="40" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
-        <v>82</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>275</v>
+        <v>84</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>756</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>86</v>
+        <v>735</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="19" t="s">
-        <v>156</v>
+        <v>737</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I92" s="33">
-        <v>73</v>
+        <v>734</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>732</v>
       </c>
       <c r="J92" s="33"/>
-      <c r="K92" s="40" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="K92" s="41"/>
+    </row>
+    <row r="93" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>301</v>
+        <v>757</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>3</v>
@@ -6972,86 +6806,84 @@
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="19" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="H93" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="I93" s="33">
-        <v>74.099999999999994</v>
+      <c r="I93" s="33" t="s">
+        <v>733</v>
       </c>
       <c r="J93" s="33"/>
-      <c r="K93" s="40" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K93" s="41"/>
+    </row>
+    <row r="94" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="19" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>734</v>
+        <v>98</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="J94" s="33"/>
       <c r="K94" s="41"/>
     </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="19" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="H95" s="33" t="s">
-        <v>734</v>
+        <v>98</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="J95" s="33"/>
       <c r="K95" s="41"/>
     </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>3</v>
@@ -7061,26 +6893,26 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="19" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H96" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="J96" s="33"/>
       <c r="K96" s="41"/>
     </row>
-    <row r="97" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>3</v>
@@ -7090,26 +6922,26 @@
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="19" t="s">
-        <v>750</v>
+        <v>781</v>
       </c>
       <c r="H97" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J97" s="33"/>
       <c r="K97" s="41"/>
     </row>
-    <row r="98" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>3</v>
@@ -7119,177 +6951,181 @@
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="19" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H98" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J98" s="33"/>
-      <c r="K98" s="41"/>
-    </row>
-    <row r="99" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="K98" s="40"/>
+    </row>
+    <row r="99" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
-        <v>89</v>
-      </c>
-      <c r="B99" s="42" t="s">
-        <v>759</v>
+        <v>91</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>747</v>
+        <v>253</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E99" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="19" t="s">
-        <v>781</v>
+        <v>158</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I99" s="33" t="s">
-        <v>742</v>
+        <v>65</v>
+      </c>
+      <c r="I99" s="33">
+        <v>74.3</v>
       </c>
       <c r="J99" s="33"/>
-      <c r="K99" s="41"/>
-    </row>
-    <row r="100" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="K99" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
-        <v>90</v>
-      </c>
-      <c r="B100" s="42" t="s">
-        <v>760</v>
+        <v>92</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>748</v>
+        <v>249</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="19" t="s">
-        <v>752</v>
+        <v>159</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I100" s="33" t="s">
-        <v>743</v>
+        <v>65</v>
+      </c>
+      <c r="I100" s="33">
+        <v>74.400000000000006</v>
       </c>
       <c r="J100" s="33"/>
-      <c r="K100" s="40"/>
-    </row>
-    <row r="101" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="K100" s="40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E101" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I101" s="33">
-        <v>74.3</v>
+        <v>74.5</v>
       </c>
       <c r="J101" s="33"/>
       <c r="K101" s="40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="19" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="I102" s="33">
-        <v>74.400000000000006</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="J102" s="33"/>
       <c r="K102" s="40" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="I103" s="33">
-        <v>74.5</v>
+        <v>74.7</v>
       </c>
       <c r="J103" s="33"/>
       <c r="K103" s="40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>3</v>
@@ -7299,214 +7135,198 @@
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19" t="s">
-        <v>286</v>
+        <v>782</v>
       </c>
       <c r="H104" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I104" s="33">
-        <v>74.599999999999994</v>
+        <v>74.8</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="40" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E105" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="19" t="s">
-        <v>285</v>
+        <v>783</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I105" s="33">
-        <v>74.7</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="J105" s="33"/>
       <c r="K105" s="40" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="19" t="s">
-        <v>782</v>
+        <v>280</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I106" s="33">
-        <v>74.8</v>
+        <v>279</v>
+      </c>
+      <c r="I106" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="J106" s="33"/>
       <c r="K106" s="40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>281</v>
+        <v>88</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E107" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="19" t="s">
-        <v>783</v>
+        <v>161</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="I107" s="33">
-        <v>74.900000000000006</v>
+        <v>65</v>
+      </c>
+      <c r="I107" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="J107" s="33"/>
       <c r="K107" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="19" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H108" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>276</v>
+        <v>36</v>
+      </c>
+      <c r="I108" s="33">
+        <v>75</v>
       </c>
       <c r="J108" s="33"/>
       <c r="K108" s="40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E109" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H109" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>37</v>
-      </c>
+      <c r="G109" s="19"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="K109" s="40"/>
+    </row>
+    <row r="110" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E110" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="H110" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I110" s="33">
-        <v>75</v>
-      </c>
+      <c r="G110" s="19"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="33"/>
       <c r="J110" s="33"/>
-      <c r="K110" s="40" t="s">
-        <v>731</v>
-      </c>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>11</v>
@@ -7523,16 +7343,16 @@
     </row>
     <row r="112" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E112" s="9">
         <v>6</v>
@@ -7544,92 +7364,52 @@
       <c r="J112" s="33"/>
       <c r="K112" s="40"/>
     </row>
-    <row r="113" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="23">
-        <v>103</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="9">
-        <v>8</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="40"/>
-    </row>
-    <row r="114" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="23">
-        <v>104</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="9">
-        <v>6</v>
-      </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="40"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="18"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="18"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="18"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="18"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="18"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="18"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="18"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="18"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="18"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="18"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="18"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="18"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="18"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
@@ -7652,12 +7432,6 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="18"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="18"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7673,7 +7447,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:J24 B54:F54 B51:D51 F51 A115:XFD1048576 B110:F110 H110:J110 A2:XFD2 A14:B14 D14:J14 B109:J109 B85 D85:J85 B111:XFD114 A4:XFD7 A3:B3 D3:XFD3 B50:I50 B49:I49 L49:XFD49 B48:F48 L48:XFD48 B47:F47 L47:XFD47 L50:XFD50 L51:XFD51 B52:F52 L52:XFD52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J12 H13:J13 B26:F26 B25:F25 H25:J25 B30:J30 B27:F27 H27:J27 B37:J37 B31:F31 H31:J31 B46:F46 B38:F38 H38:J38 B39:F39 H39:J39 B62:F62 B60:F60 H60:J60 B73:J84 B63:F63 H63:J63 A8:J8 L8:XFD8 A1:B1 E1:XFD1 L9:XFD9 L10:XFD11 L12:XFD12 L13:XFD13 L14:XFD14 B16:J18 L16:XFD23 L24:XFD24 L25:XFD25 L26:XFD26 L27:XFD27 B28:F28 L28:XFD28 B29:F29 L29:XFD29 L30:XFD30 L31:XFD31 B32:J32 L32:XFD32 B33:J33 L33:XFD33 B34:J34 L34:XFD34 B35:J35 L35:XFD35 B36:J36 L36:XFD36 L37:XFD37 L38:XFD38 L39:XFD39 B40:J40 L40:XFD40 B41:J41 L41:XFD41 B42:J42 L42:XFD42 B43:J43 L43:XFD43 B44:J44 L44:XFD44 B45:F45 L45:XFD45 L46:XFD46 C53:F53 L53:XFD53 D58 B55:J55 L55:XFD55 L54:XFD54 B56:F56 L56:XFD56 B57:D57 L57:XFD57 L58:XFD58 L60:XFD60 B61:F61 L61:XFD61 L62:XFD62 L63:XFD63 B64:J64 L64:XFD64 B65:J65 L65:XFD65 L66:XFD66 L69:XFD69 B70:J70 L70:XFD70 B71:J71 L71:XFD71 B72:J72 L72:XFD72 B86:J92 L86:XFD92 L85:XFD85 L73:XFD84 B93 L93:XFD93 L100:XFD100 B101:J101 L101:XFD101 B102:J105 L102:XFD108 L109:XFD109 L110:XFD110 F93 I93:J93 J100 D100 F100 D93 B20:J20 B19:F19 H19:J19 B22:J23 B21:F21 H21:J21 H26:J26 H28:J28 H29:J29 H45:J45 H46:J46 H51:I51 H52:I52 H53:J53 H54:J54 H61:J61 H62:J62 B108:J108 B106:F106 H106:J106 B107:F107 H107:J107 H56:J56 H47:I47 H48:I48 F66 I66:J66 D69 F69 J69 F57:J57 F58 I58:J58" numberStoredAsText="1"/>
+    <ignoredError sqref="B54:F54 B51:D51 F51 A113:XFD1048576 B108:F108 H108:J108 A2:XFD2 A14:B14 D14:J14 B83 D83:J83 B109:XFD112 A4:XFD7 A3:B3 D3:XFD3 B49:I50 B52:F52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J13 B30:J30 B31:F31 H31:J31 B38:F39 H38:J39 A8:J8 A1:B1 E1:XFD1 L8:XFD14 B16:J18 B25:F29 B32:J37 B40:J44 B45:F48 C53:F53 D58 B55:J55 B56:F56 B57:D57 L16:XFD58 B60:F63 B64:J65 L60:XFD65 I58:J58 B68:J82 B84:J90 B91 L67:XFD91 B99:J103 L98:XFD108 F91 I91:J91 J98 D98 F98 D91 B20:J20 B19:F19 H19:J19 B22:J24 B21:F21 H21:J21 H25:J29 H45:J46 H51:I52 H53:J54 H60:J63 B106:J107 B104:F105 H104:J105 H56:J56 H47:I48 D67 F67 J67 F57:J57 F58" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9722,10 +9496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9737,8 +9511,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -9750,10 +9524,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="8" t="s">
         <v>304</v>
       </c>
@@ -9763,10 +9537,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -9774,20 +9548,20 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
@@ -9796,10 +9570,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB83E7FB-687B-4ACF-A1B8-4AC549DC7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6796096-9A2A-44DC-9389-778D8EA5C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -31,20 +31,11 @@
     <definedName name="xRng_bb87232254c14d58bf464033222e67d3">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="797">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3236,6 +3227,9 @@
 110/12/17 起適用，爰 110/12/17 前之購地貸款案件本欄亦
 請填'N'。)</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3515,10 +3509,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3536,10 +3530,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3547,9 +3541,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3569,19 +3560,16 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3596,10 +3584,10 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3620,19 +3608,16 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3648,9 +3633,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3687,9 +3669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3727,9 +3709,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3762,26 +3744,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3814,26 +3779,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4010,49 +3958,49 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="8" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="71.5546875" style="19" customWidth="1"/>
-    <col min="8" max="9" width="6" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="81.88671875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="71.5546875" style="18" customWidth="1"/>
+    <col min="8" max="9" width="6" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="81.88671875" style="38" customWidth="1"/>
     <col min="12" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="38"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -4062,16 +4010,16 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="39"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="8" t="s">
         <v>344</v>
       </c>
@@ -4079,69 +4027,69 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="39"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="37"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="39"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="48"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="48"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="39"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="48"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="39"/>
-    </row>
-    <row r="8" spans="1:11" s="14" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="20"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>170</v>
       </c>
@@ -4160,22 +4108,22 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="34" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="32" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+    <row r="9" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -4191,16 +4139,16 @@
         <v>6</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="40" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="38" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -4216,22 +4164,22 @@
         <v>3</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>1</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="40" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="38" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+    <row r="11" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -4247,22 +4195,22 @@
         <v>4</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="40" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="38" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+    <row r="12" spans="1:11" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -4278,22 +4226,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>3.1</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="40" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="38" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
+    <row r="13" spans="1:11" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -4309,22 +4257,22 @@
         <v>1</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>3.2</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="31"/>
+      <c r="K13" s="38" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    <row r="14" spans="1:11" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -4340,22 +4288,22 @@
         <v>50</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>4</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="40" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="38" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+    <row r="15" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -4371,18 +4319,18 @@
         <v>2</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="40" t="s">
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="38" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+    <row r="16" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -4398,22 +4346,22 @@
         <v>10</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>5</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="40" t="s">
+      <c r="J16" s="31"/>
+      <c r="K16" s="38" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+    <row r="17" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -4429,22 +4377,22 @@
         <v>10</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>6</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="40" t="s">
+      <c r="J17" s="31"/>
+      <c r="K17" s="38" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+    <row r="18" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4460,22 +4408,22 @@
         <v>1</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>7</v>
       </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="40" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+    <row r="19" spans="1:11" s="14" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -4491,22 +4439,22 @@
         <v>10</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>765</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>8</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="40" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="38" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+    <row r="20" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -4522,22 +4470,22 @@
         <v>1</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>9</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="40" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -4553,22 +4501,22 @@
         <v>10</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <v>10</v>
       </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="40" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+    <row r="22" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -4584,22 +4532,22 @@
         <v>6</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>11</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="40" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="38" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+    <row r="23" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -4615,22 +4563,22 @@
         <v>3</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <v>12</v>
       </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="40" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+    <row r="24" spans="1:11" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>16</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -4646,22 +4594,22 @@
         <v>1</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>13</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="31"/>
+      <c r="K24" s="38" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -4677,22 +4625,22 @@
         <v>1</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>14</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="40" t="s">
+      <c r="J25" s="31"/>
+      <c r="K25" s="38" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+    <row r="26" spans="1:11" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -4708,22 +4656,22 @@
         <v>1</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>15.1</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="38" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+    <row r="27" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -4739,22 +4687,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>15.2</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="40" t="s">
+      <c r="J27" s="31"/>
+      <c r="K27" s="38" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="303.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -4770,22 +4718,22 @@
         <v>1</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>16</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="40" t="s">
+      <c r="J28" s="31"/>
+      <c r="K28" s="38" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="15" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -4801,22 +4749,22 @@
         <v>2</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <v>17</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="40" t="s">
+      <c r="J29" s="31"/>
+      <c r="K29" s="38" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
+    <row r="30" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -4832,22 +4780,22 @@
         <v>1</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <v>18</v>
       </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="40" t="s">
+      <c r="J30" s="31"/>
+      <c r="K30" s="38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
+    <row r="31" spans="1:11" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
         <v>23</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -4863,22 +4811,22 @@
         <v>1</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>19</v>
       </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="40" t="s">
+      <c r="J31" s="31"/>
+      <c r="K31" s="38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
+    <row r="32" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -4896,22 +4844,22 @@
       <c r="F32" s="9">
         <v>5</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>20</v>
       </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="40" t="s">
+      <c r="J32" s="31"/>
+      <c r="K32" s="38" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
+    <row r="33" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>25</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -4927,22 +4875,22 @@
         <v>5</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>21</v>
       </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="40" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="38" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
+    <row r="34" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
         <v>26</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -4958,22 +4906,22 @@
         <v>5</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>22</v>
       </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="40" t="s">
+      <c r="J34" s="31"/>
+      <c r="K34" s="38" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
+    <row r="35" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
         <v>27</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -4989,22 +4937,22 @@
         <v>3</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>23</v>
       </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="40" t="s">
+      <c r="J35" s="31"/>
+      <c r="K35" s="38" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+    <row r="36" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -5020,22 +4968,22 @@
         <v>10</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
         <v>24</v>
       </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="40" t="s">
+      <c r="J36" s="31"/>
+      <c r="K36" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
+    <row r="37" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
         <v>29</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -5051,22 +4999,22 @@
         <v>10</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="31">
         <v>25</v>
       </c>
-      <c r="J37" s="33"/>
-      <c r="K37" s="40" t="s">
+      <c r="J37" s="31"/>
+      <c r="K37" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
         <v>30</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -5082,22 +5030,22 @@
         <v>1</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="31">
         <v>26</v>
       </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="40" t="s">
+      <c r="J38" s="31"/>
+      <c r="K38" s="38" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
+    <row r="39" spans="1:11" s="14" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
         <v>31</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -5113,22 +5061,22 @@
         <v>1</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>27</v>
       </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="40" t="s">
+      <c r="J39" s="31"/>
+      <c r="K39" s="38" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
+    <row r="40" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>32</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -5144,22 +5092,22 @@
         <v>50</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>28</v>
       </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="40" t="s">
+      <c r="J40" s="31"/>
+      <c r="K40" s="38" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
+    <row r="41" spans="1:11" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
         <v>33</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -5175,22 +5123,22 @@
         <v>10</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>29</v>
       </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="40" t="s">
+      <c r="J41" s="31"/>
+      <c r="K41" s="38" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
+    <row r="42" spans="1:11" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -5206,22 +5154,22 @@
         <v>10</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>30</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="40" t="s">
+      <c r="J42" s="31"/>
+      <c r="K42" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
+    <row r="43" spans="1:11" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
         <v>35</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -5237,22 +5185,22 @@
         <v>10</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="31">
         <v>31</v>
       </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="40" t="s">
+      <c r="J43" s="31"/>
+      <c r="K43" s="38" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
+    <row r="44" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
         <v>36</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -5268,22 +5216,22 @@
         <v>10</v>
       </c>
       <c r="F44" s="9"/>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <v>32</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="K44" s="40" t="s">
+      <c r="J44" s="31"/>
+      <c r="K44" s="38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+    <row r="45" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
         <v>37</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -5299,22 +5247,22 @@
         <v>1</v>
       </c>
       <c r="F45" s="9"/>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="18" t="s">
         <v>772</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <v>33</v>
       </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="40" t="s">
+      <c r="J45" s="31"/>
+      <c r="K45" s="38" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
+    <row r="46" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
         <v>38</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -5330,22 +5278,22 @@
         <v>1</v>
       </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <v>34</v>
       </c>
-      <c r="J46" s="33"/>
-      <c r="K46" s="40" t="s">
+      <c r="J46" s="31"/>
+      <c r="K46" s="38" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
+    <row r="47" spans="1:11" s="14" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>39</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -5363,24 +5311,24 @@
       <c r="F47" s="9">
         <v>3</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H47" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>35</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="38" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
+    <row r="48" spans="1:11" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -5398,24 +5346,24 @@
       <c r="F48" s="9">
         <v>3</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <v>36</v>
       </c>
-      <c r="J48" s="33" t="s">
+      <c r="J48" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
+    <row r="49" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>41</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -5433,24 +5381,24 @@
       <c r="F49" s="9">
         <v>3</v>
       </c>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="31">
         <v>37</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
+    <row r="50" spans="1:11" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>42</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -5468,24 +5416,24 @@
       <c r="F50" s="9">
         <v>3</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="33" t="s">
+      <c r="H50" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="31">
         <v>38</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="38" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
+    <row r="51" spans="1:11" s="14" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>43</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -5501,24 +5449,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="31">
         <v>39</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="38" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="15" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
+    <row r="52" spans="1:11" s="14" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
         <v>44</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -5534,24 +5482,24 @@
         <v>1</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="31">
         <v>40</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="31">
         <v>304</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="38" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
+    <row r="53" spans="1:11" s="14" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
         <v>45</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -5567,22 +5515,22 @@
         <v>3</v>
       </c>
       <c r="F53" s="9"/>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="H53" s="33" t="s">
+      <c r="H53" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="31">
         <v>41</v>
       </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="40" t="s">
+      <c r="J53" s="31"/>
+      <c r="K53" s="38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="23">
+    <row r="54" spans="1:11" s="14" customFormat="1" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
         <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -5598,22 +5546,22 @@
         <v>3</v>
       </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>776</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="31">
         <v>42</v>
       </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="40" t="s">
+      <c r="J54" s="31"/>
+      <c r="K54" s="38" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+    <row r="55" spans="1:11" s="14" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
         <v>47</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -5629,22 +5577,22 @@
         <v>10</v>
       </c>
       <c r="F55" s="9"/>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="H55" s="33" t="s">
+      <c r="H55" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="31">
         <v>43</v>
       </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="40" t="s">
+      <c r="J55" s="31"/>
+      <c r="K55" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+    <row r="56" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
         <v>48</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -5660,22 +5608,22 @@
         <v>14</v>
       </c>
       <c r="F56" s="9"/>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="H56" s="33" t="s">
+      <c r="H56" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <v>44.1</v>
       </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="40" t="s">
+      <c r="J56" s="31"/>
+      <c r="K56" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
+    <row r="57" spans="1:11" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
         <v>49</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -5691,25 +5639,25 @@
         <v>5</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="31">
         <v>44.2</v>
       </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="40" t="s">
+      <c r="J57" s="31"/>
+      <c r="K57" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+    <row r="58" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
         <v>50</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="43" t="s">
         <v>787</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -5722,51 +5670,51 @@
         <v>1</v>
       </c>
       <c r="F58" s="9"/>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="H58" s="33" t="s">
+      <c r="H58" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <v>44.3</v>
       </c>
-      <c r="J58" s="33"/>
-      <c r="K58" s="40" t="s">
+      <c r="J58" s="31"/>
+      <c r="K58" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+    <row r="59" spans="1:11" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
         <v>51</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="44" t="s">
         <v>794</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="D59" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="44">
+      <c r="D59" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="41">
         <v>5</v>
       </c>
       <c r="F59" s="9"/>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="H59" s="33" t="s">
+      <c r="H59" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>44.4</v>
       </c>
-      <c r="J59" s="33"/>
-      <c r="K59" s="40"/>
-    </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
+      <c r="J59" s="31"/>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
         <v>52</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -5782,22 +5730,22 @@
         <v>1</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="18" t="s">
         <v>777</v>
       </c>
-      <c r="H60" s="33" t="s">
+      <c r="H60" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <v>45</v>
       </c>
-      <c r="J60" s="33"/>
-      <c r="K60" s="40" t="s">
+      <c r="J60" s="31"/>
+      <c r="K60" s="38" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+    <row r="61" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
         <v>53</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -5813,22 +5761,22 @@
         <v>10</v>
       </c>
       <c r="F61" s="9"/>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="H61" s="33" t="s">
+      <c r="H61" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="31">
         <v>46</v>
       </c>
-      <c r="J61" s="33"/>
-      <c r="K61" s="40" t="s">
+      <c r="J61" s="31"/>
+      <c r="K61" s="38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+    <row r="62" spans="1:11" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
         <v>54</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -5844,22 +5792,22 @@
         <v>2</v>
       </c>
       <c r="F62" s="9"/>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="H62" s="33" t="s">
+      <c r="H62" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>47</v>
       </c>
-      <c r="J62" s="33"/>
-      <c r="K62" s="40" t="s">
+      <c r="J62" s="31"/>
+      <c r="K62" s="38" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
+    <row r="63" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
         <v>55</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -5875,22 +5823,22 @@
         <v>1</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="H63" s="33" t="s">
+      <c r="H63" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>48</v>
       </c>
-      <c r="J63" s="33"/>
-      <c r="K63" s="40" t="s">
+      <c r="J63" s="31"/>
+      <c r="K63" s="38" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
+    <row r="64" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
         <v>56</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -5906,22 +5854,22 @@
         <v>8</v>
       </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="31">
         <v>49</v>
       </c>
-      <c r="J64" s="33"/>
-      <c r="K64" s="40" t="s">
+      <c r="J64" s="31"/>
+      <c r="K64" s="38" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
+    <row r="65" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -5939,84 +5887,84 @@
       <c r="F65" s="9">
         <v>2</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H65" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <v>50</v>
       </c>
-      <c r="J65" s="33"/>
-      <c r="K65" s="40" t="s">
+      <c r="J65" s="31"/>
+      <c r="K65" s="38" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
+    <row r="66" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
         <v>58</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="43" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="46" t="s">
+      <c r="C66" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="43" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="9">
         <v>3</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>51</v>
       </c>
-      <c r="J66" s="33"/>
-      <c r="K66" s="40" t="s">
+      <c r="J66" s="31"/>
+      <c r="K66" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
+    <row r="67" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
         <v>59</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="C67" s="43" t="s">
+      <c r="C67" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="D67" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="44">
+      <c r="D67" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="41">
         <v>5</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="45" t="s">
+      <c r="G67" s="42" t="s">
         <v>793</v>
       </c>
-      <c r="H67" s="33" t="s">
+      <c r="H67" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <v>52</v>
       </c>
-      <c r="J67" s="33"/>
-      <c r="K67" s="40" t="s">
+      <c r="J67" s="31"/>
+      <c r="K67" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
+    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -6032,22 +5980,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="H68" s="33" t="s">
+      <c r="H68" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <v>53.1</v>
       </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="40" t="s">
+      <c r="J68" s="31"/>
+      <c r="K68" s="38" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
+    <row r="69" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -6063,22 +6011,22 @@
         <v>1</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="33" t="s">
+      <c r="H69" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>53.2</v>
       </c>
-      <c r="J69" s="33"/>
-      <c r="K69" s="40" t="s">
+      <c r="J69" s="31"/>
+      <c r="K69" s="38" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
+    <row r="70" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -6094,22 +6042,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="33" t="s">
+      <c r="H70" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <v>53.3</v>
       </c>
-      <c r="J70" s="33"/>
-      <c r="K70" s="40" t="s">
+      <c r="J70" s="31"/>
+      <c r="K70" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="23">
+    <row r="71" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -6125,22 +6073,22 @@
         <v>1</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>54</v>
       </c>
-      <c r="J71" s="33"/>
-      <c r="K71" s="40" t="s">
+      <c r="J71" s="31"/>
+      <c r="K71" s="38" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23">
+    <row r="72" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -6156,22 +6104,22 @@
         <v>10</v>
       </c>
       <c r="F72" s="9"/>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H72" s="33" t="s">
+      <c r="H72" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>55</v>
       </c>
-      <c r="J72" s="33"/>
-      <c r="K72" s="40" t="s">
+      <c r="J72" s="31"/>
+      <c r="K72" s="38" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23">
+    <row r="73" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
         <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -6187,22 +6135,22 @@
         <v>1</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H73" s="33" t="s">
+      <c r="H73" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <v>56</v>
       </c>
-      <c r="J73" s="33"/>
-      <c r="K73" s="40" t="s">
+      <c r="J73" s="31"/>
+      <c r="K73" s="38" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
+    <row r="74" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
         <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -6218,22 +6166,22 @@
         <v>2</v>
       </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H74" s="33" t="s">
+      <c r="H74" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <v>57</v>
       </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="40" t="s">
+      <c r="J74" s="31"/>
+      <c r="K74" s="38" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="23">
+    <row r="75" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -6249,22 +6197,22 @@
         <v>1</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H75" s="33" t="s">
+      <c r="H75" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>58</v>
       </c>
-      <c r="J75" s="33"/>
-      <c r="K75" s="40" t="s">
+      <c r="J75" s="31"/>
+      <c r="K75" s="38" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="23">
+    <row r="76" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -6280,22 +6228,22 @@
         <v>10</v>
       </c>
       <c r="F76" s="9"/>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H76" s="33" t="s">
+      <c r="H76" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <v>59</v>
       </c>
-      <c r="J76" s="33"/>
-      <c r="K76" s="40" t="s">
+      <c r="J76" s="31"/>
+      <c r="K76" s="38" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23">
+    <row r="77" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
         <v>69</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -6311,22 +6259,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="9"/>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="H77" s="33" t="s">
+      <c r="H77" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="31">
         <v>60</v>
       </c>
-      <c r="J77" s="33"/>
-      <c r="K77" s="40" t="s">
+      <c r="J77" s="31"/>
+      <c r="K77" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23">
+    <row r="78" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
         <v>70</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -6342,22 +6290,22 @@
         <v>2</v>
       </c>
       <c r="F78" s="9"/>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H78" s="33" t="s">
+      <c r="H78" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <v>61</v>
       </c>
-      <c r="J78" s="33"/>
-      <c r="K78" s="40" t="s">
+      <c r="J78" s="31"/>
+      <c r="K78" s="38" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
+    <row r="79" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
         <v>71</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -6373,22 +6321,22 @@
         <v>1</v>
       </c>
       <c r="F79" s="9"/>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H79" s="33" t="s">
+      <c r="H79" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="31">
         <v>62</v>
       </c>
-      <c r="J79" s="33"/>
-      <c r="K79" s="40" t="s">
+      <c r="J79" s="31"/>
+      <c r="K79" s="38" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="23">
+    <row r="80" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
         <v>72</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -6404,22 +6352,22 @@
         <v>10</v>
       </c>
       <c r="F80" s="9"/>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H80" s="33" t="s">
+      <c r="H80" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="31">
         <v>63</v>
       </c>
-      <c r="J80" s="33"/>
-      <c r="K80" s="40" t="s">
+      <c r="J80" s="31"/>
+      <c r="K80" s="38" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23">
+    <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9">
         <v>73</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -6435,22 +6383,22 @@
         <v>1</v>
       </c>
       <c r="F81" s="9"/>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H81" s="33" t="s">
+      <c r="H81" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <v>64</v>
       </c>
-      <c r="J81" s="33"/>
-      <c r="K81" s="40" t="s">
+      <c r="J81" s="31"/>
+      <c r="K81" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23">
+    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9">
         <v>74</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -6466,22 +6414,22 @@
         <v>2</v>
       </c>
       <c r="F82" s="9"/>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H82" s="33" t="s">
+      <c r="H82" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="31">
         <v>65</v>
       </c>
-      <c r="J82" s="33"/>
-      <c r="K82" s="40" t="s">
+      <c r="J82" s="31"/>
+      <c r="K82" s="38" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="23">
+    <row r="83" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
         <v>75</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -6497,22 +6445,22 @@
         <v>1</v>
       </c>
       <c r="F83" s="9"/>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H83" s="33" t="s">
+      <c r="H83" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="31">
         <v>66</v>
       </c>
-      <c r="J83" s="33"/>
-      <c r="K83" s="40" t="s">
+      <c r="J83" s="31"/>
+      <c r="K83" s="38" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="23">
+    <row r="84" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
         <v>76</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -6528,22 +6476,22 @@
         <v>10</v>
       </c>
       <c r="F84" s="9"/>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H84" s="33" t="s">
+      <c r="H84" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="31">
         <v>67</v>
       </c>
-      <c r="J84" s="33"/>
-      <c r="K84" s="40" t="s">
+      <c r="J84" s="31"/>
+      <c r="K84" s="38" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23">
+    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
         <v>77</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -6559,22 +6507,22 @@
         <v>1</v>
       </c>
       <c r="F85" s="9"/>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H85" s="33" t="s">
+      <c r="H85" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="31">
         <v>68</v>
       </c>
-      <c r="J85" s="33"/>
-      <c r="K85" s="40" t="s">
+      <c r="J85" s="31"/>
+      <c r="K85" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23">
+    <row r="86" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>78</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -6590,22 +6538,22 @@
         <v>2</v>
       </c>
       <c r="F86" s="9"/>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H86" s="33" t="s">
+      <c r="H86" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="31">
         <v>69</v>
       </c>
-      <c r="J86" s="33"/>
-      <c r="K86" s="40" t="s">
+      <c r="J86" s="31"/>
+      <c r="K86" s="38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="23">
+    <row r="87" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>79</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -6621,22 +6569,22 @@
         <v>1</v>
       </c>
       <c r="F87" s="9"/>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <v>70</v>
       </c>
-      <c r="J87" s="33"/>
-      <c r="K87" s="40" t="s">
+      <c r="J87" s="31"/>
+      <c r="K87" s="38" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="23">
+    <row r="88" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="9">
         <v>80</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -6652,22 +6600,22 @@
         <v>10</v>
       </c>
       <c r="F88" s="9"/>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H88" s="33" t="s">
+      <c r="H88" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <v>71</v>
       </c>
-      <c r="J88" s="33"/>
-      <c r="K88" s="40" t="s">
+      <c r="J88" s="31"/>
+      <c r="K88" s="38" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23">
+    <row r="89" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>81</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -6683,22 +6631,22 @@
         <v>1</v>
       </c>
       <c r="F89" s="9"/>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="31">
         <v>72</v>
       </c>
-      <c r="J89" s="33"/>
-      <c r="K89" s="40" t="s">
+      <c r="J89" s="31"/>
+      <c r="K89" s="38" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23">
+    <row r="90" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
         <v>82</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -6714,25 +6662,25 @@
         <v>2</v>
       </c>
       <c r="F90" s="9"/>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H90" s="33" t="s">
+      <c r="H90" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="31">
         <v>73</v>
       </c>
-      <c r="J90" s="33"/>
-      <c r="K90" s="40" t="s">
+      <c r="J90" s="31"/>
+      <c r="K90" s="38" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="23">
+    <row r="91" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>83</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="8" t="s">
         <v>301</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -6745,25 +6693,25 @@
         <v>5</v>
       </c>
       <c r="F91" s="9"/>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="H91" s="33" t="s">
+      <c r="H91" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="I91" s="33">
+      <c r="I91" s="31">
         <v>74.099999999999994</v>
       </c>
-      <c r="J91" s="33"/>
-      <c r="K91" s="40" t="s">
+      <c r="J91" s="31"/>
+      <c r="K91" s="38" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="23">
+    <row r="92" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>84</v>
       </c>
-      <c r="B92" s="42" t="s">
+      <c r="B92" s="8" t="s">
         <v>756</v>
       </c>
       <c r="C92" s="8" t="s">
@@ -6776,23 +6724,23 @@
         <v>5</v>
       </c>
       <c r="F92" s="9"/>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="18" t="s">
         <v>737</v>
       </c>
-      <c r="H92" s="33" t="s">
+      <c r="H92" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="I92" s="33" t="s">
+      <c r="I92" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="J92" s="33"/>
-      <c r="K92" s="41"/>
-    </row>
-    <row r="93" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="23">
+      <c r="J92" s="31"/>
+      <c r="K92" s="39"/>
+    </row>
+    <row r="93" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
         <v>85</v>
       </c>
-      <c r="B93" s="42" t="s">
+      <c r="B93" s="8" t="s">
         <v>757</v>
       </c>
       <c r="C93" s="8" t="s">
@@ -6805,23 +6753,23 @@
         <v>5</v>
       </c>
       <c r="F93" s="9"/>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="H93" s="33" t="s">
+      <c r="H93" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="I93" s="33" t="s">
+      <c r="I93" s="31" t="s">
         <v>733</v>
       </c>
-      <c r="J93" s="33"/>
-      <c r="K93" s="41"/>
-    </row>
-    <row r="94" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="23">
+      <c r="J93" s="31"/>
+      <c r="K93" s="39"/>
+    </row>
+    <row r="94" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>86</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="8" t="s">
         <v>754</v>
       </c>
       <c r="C94" s="8" t="s">
@@ -6834,23 +6782,23 @@
         <v>1</v>
       </c>
       <c r="F94" s="9"/>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="H94" s="33" t="s">
+      <c r="H94" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I94" s="33" t="s">
+      <c r="I94" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="J94" s="33"/>
-      <c r="K94" s="41"/>
-    </row>
-    <row r="95" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23">
+      <c r="J94" s="31"/>
+      <c r="K94" s="39"/>
+    </row>
+    <row r="95" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
         <v>87</v>
       </c>
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="8" t="s">
         <v>755</v>
       </c>
       <c r="C95" s="8" t="s">
@@ -6863,23 +6811,23 @@
         <v>1</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="H95" s="33" t="s">
+      <c r="H95" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I95" s="33" t="s">
+      <c r="I95" s="31" t="s">
         <v>740</v>
       </c>
-      <c r="J95" s="33"/>
-      <c r="K95" s="41"/>
-    </row>
-    <row r="96" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="23">
+      <c r="J95" s="31"/>
+      <c r="K95" s="39"/>
+    </row>
+    <row r="96" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
         <v>88</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="8" t="s">
         <v>758</v>
       </c>
       <c r="C96" s="8" t="s">
@@ -6892,23 +6840,23 @@
         <v>1</v>
       </c>
       <c r="F96" s="9"/>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="H96" s="33" t="s">
+      <c r="H96" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I96" s="33" t="s">
+      <c r="I96" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="J96" s="33"/>
-      <c r="K96" s="41"/>
-    </row>
-    <row r="97" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="23">
+      <c r="J96" s="31"/>
+      <c r="K96" s="39"/>
+    </row>
+    <row r="97" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
         <v>89</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="8" t="s">
         <v>759</v>
       </c>
       <c r="C97" s="8" t="s">
@@ -6921,23 +6869,23 @@
         <v>1</v>
       </c>
       <c r="F97" s="9"/>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="H97" s="33" t="s">
+      <c r="H97" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I97" s="33" t="s">
+      <c r="I97" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="J97" s="33"/>
-      <c r="K97" s="41"/>
-    </row>
-    <row r="98" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="23">
+      <c r="J97" s="31"/>
+      <c r="K97" s="39"/>
+    </row>
+    <row r="98" spans="1:11" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
         <v>90</v>
       </c>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="8" t="s">
         <v>760</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -6950,20 +6898,20 @@
         <v>1</v>
       </c>
       <c r="F98" s="9"/>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="H98" s="33" t="s">
+      <c r="H98" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I98" s="33" t="s">
+      <c r="I98" s="31" t="s">
         <v>743</v>
       </c>
-      <c r="J98" s="33"/>
-      <c r="K98" s="40"/>
-    </row>
-    <row r="99" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="23">
+      <c r="J98" s="31"/>
+      <c r="K98" s="38"/>
+    </row>
+    <row r="99" spans="1:11" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
         <v>91</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -6979,22 +6927,22 @@
         <v>5</v>
       </c>
       <c r="F99" s="9"/>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H99" s="33" t="s">
+      <c r="H99" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I99" s="33">
+      <c r="I99" s="31">
         <v>74.3</v>
       </c>
-      <c r="J99" s="33"/>
-      <c r="K99" s="40" t="s">
+      <c r="J99" s="31"/>
+      <c r="K99" s="38" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="23">
+    <row r="100" spans="1:11" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
         <v>92</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -7010,22 +6958,22 @@
         <v>5</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H100" s="33" t="s">
+      <c r="H100" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I100" s="33">
+      <c r="I100" s="31">
         <v>74.400000000000006</v>
       </c>
-      <c r="J100" s="33"/>
-      <c r="K100" s="40" t="s">
+      <c r="J100" s="31"/>
+      <c r="K100" s="38" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="23">
+    <row r="101" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
         <v>93</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -7041,22 +6989,22 @@
         <v>7</v>
       </c>
       <c r="F101" s="9"/>
-      <c r="G101" s="19" t="s">
+      <c r="G101" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="I101" s="33">
+      <c r="I101" s="31">
         <v>74.5</v>
       </c>
-      <c r="J101" s="33"/>
-      <c r="K101" s="40" t="s">
+      <c r="J101" s="31"/>
+      <c r="K101" s="38" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="23">
+    <row r="102" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
         <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -7072,22 +7020,22 @@
         <v>1</v>
       </c>
       <c r="F102" s="9"/>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="H102" s="33" t="s">
+      <c r="H102" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I102" s="33">
+      <c r="I102" s="31">
         <v>74.599999999999994</v>
       </c>
-      <c r="J102" s="33"/>
-      <c r="K102" s="40" t="s">
+      <c r="J102" s="31"/>
+      <c r="K102" s="38" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="23">
+    <row r="103" spans="1:11" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
         <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -7103,22 +7051,22 @@
         <v>4</v>
       </c>
       <c r="F103" s="9"/>
-      <c r="G103" s="19" t="s">
+      <c r="G103" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H103" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="I103" s="33">
+      <c r="I103" s="31">
         <v>74.7</v>
       </c>
-      <c r="J103" s="33"/>
-      <c r="K103" s="40" t="s">
+      <c r="J103" s="31"/>
+      <c r="K103" s="38" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A104" s="23">
+    <row r="104" spans="1:11" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A104" s="9">
         <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -7134,22 +7082,22 @@
         <v>1</v>
       </c>
       <c r="F104" s="9"/>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I104" s="33">
+      <c r="I104" s="31">
         <v>74.8</v>
       </c>
-      <c r="J104" s="33"/>
-      <c r="K104" s="40" t="s">
+      <c r="J104" s="31"/>
+      <c r="K104" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A105" s="23">
+    <row r="105" spans="1:11" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
         <v>97</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -7165,22 +7113,22 @@
         <v>2</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="H105" s="33" t="s">
+      <c r="H105" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="31">
         <v>74.900000000000006</v>
       </c>
-      <c r="J105" s="33"/>
-      <c r="K105" s="40" t="s">
+      <c r="J105" s="31"/>
+      <c r="K105" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="23">
+    <row r="106" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
         <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -7196,22 +7144,22 @@
         <v>9</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="19" t="s">
+      <c r="G106" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="H106" s="33" t="s">
+      <c r="H106" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="I106" s="33" t="s">
+      <c r="I106" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="J106" s="33"/>
-      <c r="K106" s="40" t="s">
+      <c r="J106" s="31"/>
+      <c r="K106" s="38" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="23">
+    <row r="107" spans="1:11" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
         <v>99</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -7227,22 +7175,22 @@
         <v>5</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="33" t="s">
+      <c r="H107" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I107" s="33" t="s">
+      <c r="I107" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="J107" s="33"/>
-      <c r="K107" s="40" t="s">
+      <c r="J107" s="31"/>
+      <c r="K107" s="38" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A108" s="23">
+    <row r="108" spans="1:11" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="9">
         <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -7258,22 +7206,22 @@
         <v>1</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="19" t="s">
+      <c r="G108" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="H108" s="33" t="s">
+      <c r="H108" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I108" s="33">
+      <c r="I108" s="31">
         <v>75</v>
       </c>
-      <c r="J108" s="33"/>
-      <c r="K108" s="40" t="s">
+      <c r="J108" s="31"/>
+      <c r="K108" s="38" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23">
+    <row r="109" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="9">
         <v>101</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -7283,20 +7231,18 @@
         <v>21</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="9">
-        <v>8</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="40"/>
-    </row>
-    <row r="110" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="23">
+      <c r="G109" s="18"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="31"/>
+      <c r="K109" s="38"/>
+    </row>
+    <row r="110" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="9">
         <v>102</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -7312,14 +7258,14 @@
         <v>6</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="40"/>
-    </row>
-    <row r="111" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="23">
+      <c r="G110" s="18"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="31"/>
+      <c r="K110" s="38"/>
+    </row>
+    <row r="111" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="9">
         <v>103</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -7329,20 +7275,18 @@
         <v>25</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="9">
-        <v>8</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="E111" s="9"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="33"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="40"/>
-    </row>
-    <row r="112" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="23">
+      <c r="G111" s="18"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="38"/>
+    </row>
+    <row r="112" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="9">
         <v>104</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -7358,80 +7302,80 @@
         <v>6</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="40"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="31"/>
+      <c r="K112" s="38"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="17"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
+      <c r="A114" s="17"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
+      <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
+      <c r="A116" s="17"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
+      <c r="A117" s="17"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18"/>
+      <c r="A118" s="17"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="17"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
+      <c r="A120" s="17"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
+      <c r="A121" s="17"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
+      <c r="A122" s="17"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="17"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18"/>
+      <c r="A124" s="17"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
+      <c r="A125" s="17"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
+      <c r="A126" s="17"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="18"/>
+      <c r="A127" s="17"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="18"/>
+      <c r="A128" s="17"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="18"/>
+      <c r="A129" s="17"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="18"/>
+      <c r="A130" s="17"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="18"/>
+      <c r="A131" s="17"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="18"/>
+      <c r="A132" s="17"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="18"/>
+      <c r="A133" s="17"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
+      <c r="A134" s="17"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
+      <c r="A135" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7447,7 +7391,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B54:F54 B51:D51 F51 A113:XFD1048576 B108:F108 H108:J108 A2:XFD2 A14:B14 D14:J14 B83 D83:J83 B109:XFD112 A4:XFD7 A3:B3 D3:XFD3 B49:I50 B52:F52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J13 B30:J30 B31:F31 H31:J31 B38:F39 H38:J39 A8:J8 A1:B1 E1:XFD1 L8:XFD14 B16:J18 B25:F29 B32:J37 B40:J44 B45:F48 C53:F53 D58 B55:J55 B56:F56 B57:D57 L16:XFD58 B60:F63 B64:J65 L60:XFD65 I58:J58 B68:J82 B84:J90 B91 L67:XFD91 B99:J103 L98:XFD108 F91 I91:J91 J98 D98 F98 D91 B20:J20 B19:F19 H19:J19 B22:J24 B21:F21 H21:J21 H25:J29 H45:J46 H51:I52 H53:J54 H60:J63 B106:J107 B104:F105 H104:J105 H56:J56 H47:I48 D67 F67 J67 F57:J57 F58" numberStoredAsText="1"/>
+    <ignoredError sqref="B54:F54 B51:D51 F51 A113:XFD1048576 B108:F108 H108:J108 A2:XFD2 A14:B14 D14:J14 B83 D83:J83 B110:XFD110 A4:XFD7 A3:B3 D3:XFD3 B49:I50 B52:F52 A10:J11 A9:B9 D9:J9 A13:F13 A12:B12 D12:F12 H12:J13 B30:J30 B31:F31 H31:J31 B38:F39 H38:J39 A8:J8 A1:B1 E1:XFD1 L8:XFD14 B16:J18 B25:F29 B32:J37 B40:J44 B45:F48 C53:F53 D58 B55:J55 B56:F56 B57:D57 L16:XFD58 B60:F63 B64:J65 L60:XFD65 I58:J58 B68:J82 B84:J90 B91 L67:XFD91 B99:J103 L98:XFD108 F91 I91:J91 J98 D98 F98 D91 B20:J20 B19:F19 H19:J19 B22:J24 B21:F21 H21:J21 H25:J29 H45:J46 H51:I52 H53:J54 H60:J63 B106:J107 B104:F105 H104:J105 H56:J56 H47:I48 D67 F67 J67 F57:J57 F58 B112:XFD112 B111:C111 F111:XFD111 B109:C109 F109:XFD109" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7497,31 +7441,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="28"/>
+    <col min="1" max="1" width="33.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7541,412 +7485,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="35"/>
+    <col min="1" max="1" width="142.33203125" style="33" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="34" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="34" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="34" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="34" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="34" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="34" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="34" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="34" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="34" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="34" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="34" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="34" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="34" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="34" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="34" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="34" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="34" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="34" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="34" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="34" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="34" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="34" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="34" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="34" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="34" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="34" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="34" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="34" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="33" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="33" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="33" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="33" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="33" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="33" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>560</v>
       </c>
     </row>
@@ -7966,367 +7910,367 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="151.21875" style="33" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="33" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="33" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="33" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="33" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="33" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="33" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="33" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="33" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="33" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="33" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="33" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="33" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="33" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="33" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="33" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="33" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="33" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="33" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>711</v>
       </c>
     </row>
@@ -8346,1125 +8290,1125 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="193.88671875" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="193.88671875" style="33" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="34"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="33" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="33" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="33" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="33" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="33" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="33" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="33" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="33" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="33" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="33" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="33" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="33" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="33" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="33" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="33" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="33" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="33" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="33" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="33" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="33" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="35" t="s">
+      <c r="A98" s="33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="35" t="s">
+      <c r="A99" s="33" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="35" t="s">
+      <c r="A101" s="33" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="33" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="33" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="35" t="s">
+      <c r="A104" s="33" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="33" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="33" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="33" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="35" t="s">
+      <c r="A108" s="33" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="33" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="35" t="s">
+      <c r="A110" s="33" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="35" t="s">
+      <c r="A111" s="33" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="35" t="s">
+      <c r="A112" s="33" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="33" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="33" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="33" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="33" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="33" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="33" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="33" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="33" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="35" t="s">
+      <c r="A122" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="35" t="s">
+      <c r="A123" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="35" t="s">
+      <c r="A124" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="33" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="35" t="s">
+      <c r="A127" s="33" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="35" t="s">
+      <c r="A128" s="33" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="35" t="s">
+      <c r="A129" s="33" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="33" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="33" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="35" t="s">
+      <c r="A132" s="33" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="35" t="s">
+      <c r="A133" s="33" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="35" t="s">
+      <c r="A134" s="33" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="35" t="s">
+      <c r="A135" s="33" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="35" t="s">
+      <c r="A136" s="33" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="35" t="s">
+      <c r="A137" s="33" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="35" t="s">
+      <c r="A138" s="33" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="35" t="s">
+      <c r="A139" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="35" t="s">
+      <c r="A141" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="35" t="s">
+      <c r="A142" s="33" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="35" t="s">
+      <c r="A144" s="33" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="33" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="35" t="s">
+      <c r="A147" s="33" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="35" t="s">
+      <c r="A148" s="33" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="35" t="s">
+      <c r="A149" s="33" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="35" t="s">
+      <c r="A150" s="33" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="35" t="s">
+      <c r="A151" s="33" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="35" t="s">
+      <c r="A152" s="33" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="35" t="s">
+      <c r="A153" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="33" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="35" t="s">
+      <c r="A159" s="33" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="35" t="s">
+      <c r="A160" s="33" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="35" t="s">
+      <c r="A162" s="33" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="35" t="s">
+      <c r="A163" s="33" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="35" t="s">
+      <c r="A164" s="33" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="35" t="s">
+      <c r="A165" s="33" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="35" t="s">
+      <c r="A166" s="33" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="35" t="s">
+      <c r="A167" s="33" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="35" t="s">
+      <c r="A168" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="35" t="s">
+      <c r="A170" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="35" t="s">
+      <c r="A171" s="33" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="35" t="s">
+      <c r="A174" s="33" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="35" t="s">
+      <c r="A175" s="33" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="35" t="s">
+      <c r="A177" s="33" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="35" t="s">
+      <c r="A178" s="33" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="35" t="s">
+      <c r="A179" s="33" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="35" t="s">
+      <c r="A180" s="33" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="35" t="s">
+      <c r="A181" s="33" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="35" t="s">
+      <c r="A182" s="33" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="35" t="s">
+      <c r="A183" s="33" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="35" t="s">
+      <c r="A184" s="33" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="35" t="s">
+      <c r="A185" s="33" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="35" t="s">
+      <c r="A186" s="33" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="35" t="s">
+      <c r="A187" s="33" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="35" t="s">
+      <c r="A188" s="33" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="35" t="s">
+      <c r="A189" s="33" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="35" t="s">
+      <c r="A190" s="33" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="35" t="s">
+      <c r="A191" s="33" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="35" t="s">
+      <c r="A192" s="33" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="35" t="s">
+      <c r="A193" s="33" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="35" t="s">
+      <c r="A194" s="33" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="35" t="s">
+      <c r="A195" s="33" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="35" t="s">
+      <c r="A196" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="35" t="s">
+      <c r="A197" s="33" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="35" t="s">
+      <c r="A198" s="33" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="35" t="s">
+      <c r="A199" s="33" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="35" t="s">
+      <c r="A200" s="33" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="35" t="s">
+      <c r="A201" s="33" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="35" t="s">
+      <c r="A202" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="35" t="s">
+      <c r="A203" s="33" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="35" t="s">
+      <c r="A204" s="33" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="35" t="s">
+      <c r="A205" s="33" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="35" t="s">
+      <c r="A206" s="33" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="35" t="s">
+      <c r="A207" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="35" t="s">
+      <c r="A208" s="33" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="35" t="s">
+      <c r="A209" s="33" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="35" t="s">
+      <c r="A210" s="33" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="35" t="s">
+      <c r="A211" s="33" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="35" t="s">
+      <c r="A212" s="33" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="35" t="s">
+      <c r="A213" s="33" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="35" t="s">
+      <c r="A215" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="35" t="s">
+      <c r="A216" s="33" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="35" t="s">
+      <c r="A219" s="33" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="35" t="s">
+      <c r="A220" s="33" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="35" t="s">
+      <c r="A222" s="33" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="35" t="s">
+      <c r="A223" s="33" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="35" t="s">
+      <c r="A224" s="33" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="35" t="s">
+      <c r="A225" s="33" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="35" t="s">
+      <c r="A226" s="33" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="35" t="s">
+      <c r="A227" s="33" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="35" t="s">
+      <c r="A228" s="33" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="35" t="s">
+      <c r="A229" s="33" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="35" t="s">
+      <c r="A230" s="33" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="35" t="s">
+      <c r="A231" s="33" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="35" t="s">
+      <c r="A232" s="33" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="35" t="s">
+      <c r="A233" s="33" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="35" t="s">
+      <c r="A234" s="33" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="35" t="s">
+      <c r="A235" s="33" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="35" t="s">
+      <c r="A236" s="33" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="35" t="s">
+      <c r="A237" s="33" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="35" t="s">
+      <c r="A239" s="33" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="35" t="s">
+      <c r="A240" s="33" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="35" t="s">
+      <c r="A243" s="33" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="35" t="s">
+      <c r="A244" s="33" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="35" t="s">
+      <c r="A246" s="33" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="35" t="s">
+      <c r="A247" s="33" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="35" t="s">
+      <c r="A248" s="33" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="35" t="s">
+      <c r="A249" s="33" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="35" t="s">
+      <c r="A250" s="33" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="35" t="s">
+      <c r="A251" s="33" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9484,22 +9428,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.5546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="71.5546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="10.21875" style="12" customWidth="1"/>
     <col min="9" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
@@ -9511,8 +9455,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -9524,10 +9468,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="8" t="s">
         <v>304</v>
       </c>
@@ -9537,10 +9481,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -9548,40 +9492,40 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="48"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="48"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="48"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -9600,15 +9544,15 @@
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -9624,15 +9568,15 @@
         <v>3</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>111</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -9648,15 +9592,15 @@
         <v>4</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>112</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>3.1</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9672,15 +9616,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>3.2</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -9696,15 +9640,15 @@
         <v>1</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="18" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -9720,15 +9664,15 @@
         <v>50</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -9744,15 +9688,15 @@
         <v>10</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>115</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -9768,15 +9712,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>116</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -9792,15 +9736,15 @@
         <v>1</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -9816,15 +9760,15 @@
         <v>10</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+    <row r="18" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -9840,15 +9784,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>119</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>10</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -9864,15 +9808,15 @@
         <v>10</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>120</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>11</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -9888,15 +9832,15 @@
         <v>6</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -9912,15 +9856,15 @@
         <v>3</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>13</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -9936,15 +9880,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>123</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>14</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -9960,15 +9904,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>124</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>15.1</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -9984,15 +9928,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="18" t="s">
         <v>125</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>15.2</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -10008,15 +9952,15 @@
         <v>1</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>126</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -10032,15 +9976,15 @@
         <v>1</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="207" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -10056,15 +10000,15 @@
         <v>2</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>127</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+    <row r="28" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -10080,15 +10024,15 @@
         <v>1</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>128</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -10104,15 +10048,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>129</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+    <row r="30" spans="1:8" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>20</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -10128,15 +10072,15 @@
         <v>8</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>53</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+    <row r="31" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
         <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -10152,15 +10096,15 @@
         <v>5</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>166</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:8" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
         <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -10176,15 +10120,15 @@
         <v>5</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
         <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -10200,15 +10144,15 @@
         <v>3</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>130</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+    <row r="34" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
         <v>24</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -10224,15 +10168,15 @@
         <v>10</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+    <row r="35" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
         <v>25</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -10248,15 +10192,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+    <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
         <v>26</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -10272,15 +10216,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>163</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+    <row r="37" spans="1:8" s="14" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
         <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -10296,15 +10240,15 @@
         <v>1</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="18" t="s">
         <v>168</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -10320,15 +10264,15 @@
         <v>50</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+    <row r="39" spans="1:8" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>29</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -10344,15 +10288,15 @@
         <v>10</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>132</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="15" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+    <row r="40" spans="1:8" s="14" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
         <v>30</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -10368,15 +10312,15 @@
         <v>10</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="18" t="s">
         <v>133</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
         <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -10392,15 +10336,15 @@
         <v>10</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="18" t="s">
         <v>134</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+    <row r="42" spans="1:8" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
         <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -10416,15 +10360,15 @@
         <v>10</v>
       </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="18" t="s">
         <v>135</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+    <row r="43" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
         <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -10440,15 +10384,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="18" t="s">
         <v>136</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+    <row r="44" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
         <v>34</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -10464,15 +10408,15 @@
         <v>1</v>
       </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="18" t="s">
         <v>137</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+    <row r="45" spans="1:8" s="14" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
         <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -10488,15 +10432,15 @@
         <v>13</v>
       </c>
       <c r="F45" s="8"/>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="18" t="s">
         <v>138</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+    <row r="46" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
         <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -10512,15 +10456,15 @@
         <v>11</v>
       </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="18" t="s">
         <v>225</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
+    <row r="47" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
         <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -10536,15 +10480,15 @@
         <v>11</v>
       </c>
       <c r="F47" s="8"/>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="18" t="s">
         <v>224</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+    <row r="48" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
         <v>38</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -10560,15 +10504,15 @@
         <v>11</v>
       </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="18" t="s">
         <v>139</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="15" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
+    <row r="49" spans="1:8" s="14" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
         <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -10584,15 +10528,15 @@
         <v>3</v>
       </c>
       <c r="F49" s="8"/>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="18" t="s">
         <v>140</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="15" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
+    <row r="50" spans="1:8" s="14" customFormat="1" ht="220.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -10608,15 +10552,15 @@
         <v>1</v>
       </c>
       <c r="F50" s="8"/>
-      <c r="G50" s="19" t="s">
+      <c r="G50" s="18" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
+    <row r="51" spans="1:8" s="14" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
         <v>41</v>
       </c>
       <c r="B51" s="8"/>
@@ -10630,15 +10574,15 @@
         <v>3</v>
       </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="18" t="s">
         <v>141</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+    <row r="52" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
         <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
@@ -10654,15 +10598,15 @@
         <v>3</v>
       </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>142</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
+    <row r="53" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
         <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -10678,15 +10622,15 @@
         <v>10</v>
       </c>
       <c r="F53" s="8"/>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>60</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+    <row r="54" spans="1:8" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
         <v>44.1</v>
       </c>
       <c r="B54" s="8" t="s">
@@ -10702,15 +10646,15 @@
         <v>14</v>
       </c>
       <c r="F54" s="8"/>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>63</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
+    <row r="55" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
         <v>44.2</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -10726,15 +10670,15 @@
         <v>5</v>
       </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>66</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+    <row r="56" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
         <v>44.3</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -10750,15 +10694,15 @@
         <v>6</v>
       </c>
       <c r="F56" s="8"/>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+    <row r="57" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
         <v>45</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -10774,15 +10718,15 @@
         <v>1</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" s="19" t="s">
+      <c r="G57" s="18" t="s">
         <v>143</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+    <row r="58" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
         <v>46</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -10798,15 +10742,15 @@
         <v>10</v>
       </c>
       <c r="F58" s="8"/>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>144</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+    <row r="59" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
         <v>47</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -10822,15 +10766,15 @@
         <v>2</v>
       </c>
       <c r="F59" s="8"/>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>145</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+    <row r="60" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
         <v>48</v>
       </c>
       <c r="B60" s="8" t="s">
@@ -10846,15 +10790,15 @@
         <v>1</v>
       </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="18" t="s">
         <v>146</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
+    <row r="61" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
         <v>49</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -10870,15 +10814,15 @@
         <v>8</v>
       </c>
       <c r="F61" s="8"/>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>147</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
+    <row r="62" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
         <v>50</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -10896,15 +10840,15 @@
       <c r="F62" s="8">
         <v>2</v>
       </c>
-      <c r="G62" s="19" t="s">
+      <c r="G62" s="18" t="s">
         <v>148</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+    <row r="63" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
         <v>51</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -10920,15 +10864,15 @@
         <v>2</v>
       </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="19" t="s">
+      <c r="G63" s="18" t="s">
         <v>149</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+    <row r="64" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
         <v>52</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -10944,15 +10888,15 @@
         <v>6</v>
       </c>
       <c r="F64" s="8"/>
-      <c r="G64" s="19" t="s">
+      <c r="G64" s="18" t="s">
         <v>150</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
+    <row r="65" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
         <v>53.1</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -10968,15 +10912,15 @@
         <v>1</v>
       </c>
       <c r="F65" s="8"/>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>151</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+    <row r="66" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
         <v>53.2</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -10992,15 +10936,15 @@
         <v>1</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="18" t="s">
         <v>152</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+    <row r="67" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
         <v>53.3</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -11016,15 +10960,15 @@
         <v>1</v>
       </c>
       <c r="F67" s="8"/>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+    <row r="68" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
         <v>54</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -11040,15 +10984,15 @@
         <v>1</v>
       </c>
       <c r="F68" s="8"/>
-      <c r="G68" s="19" t="s">
+      <c r="G68" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+    <row r="69" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
         <v>55</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -11064,15 +11008,15 @@
         <v>10</v>
       </c>
       <c r="F69" s="8"/>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+    <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16">
         <v>56</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -11088,15 +11032,15 @@
         <v>1</v>
       </c>
       <c r="F70" s="8"/>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
+    <row r="71" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
         <v>57</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -11112,15 +11056,15 @@
         <v>2</v>
       </c>
       <c r="F71" s="8"/>
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+    <row r="72" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
         <v>58</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -11136,15 +11080,15 @@
         <v>1</v>
       </c>
       <c r="F72" s="8"/>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+    <row r="73" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="16">
         <v>59</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -11160,15 +11104,15 @@
         <v>10</v>
       </c>
       <c r="F73" s="8"/>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
+    <row r="74" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16">
         <v>60</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -11184,15 +11128,15 @@
         <v>1</v>
       </c>
       <c r="F74" s="8"/>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+    <row r="75" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
         <v>61</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -11208,15 +11152,15 @@
         <v>2</v>
       </c>
       <c r="F75" s="8"/>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+    <row r="76" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
         <v>62</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -11232,15 +11176,15 @@
         <v>1</v>
       </c>
       <c r="F76" s="8"/>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+    <row r="77" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
         <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -11256,15 +11200,15 @@
         <v>10</v>
       </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+    <row r="78" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
         <v>64</v>
       </c>
       <c r="B78" s="8" t="s">
@@ -11280,15 +11224,15 @@
         <v>1</v>
       </c>
       <c r="F78" s="8"/>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+    <row r="79" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
         <v>65</v>
       </c>
       <c r="B79" s="8" t="s">
@@ -11304,15 +11248,15 @@
         <v>2</v>
       </c>
       <c r="F79" s="8"/>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+    <row r="80" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
         <v>66</v>
       </c>
       <c r="B80" s="8" t="s">
@@ -11328,15 +11272,15 @@
         <v>1</v>
       </c>
       <c r="F80" s="8"/>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+    <row r="81" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
         <v>67</v>
       </c>
       <c r="B81" s="8" t="s">
@@ -11352,15 +11296,15 @@
         <v>10</v>
       </c>
       <c r="F81" s="8"/>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+    <row r="82" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
         <v>68</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -11376,15 +11320,15 @@
         <v>1</v>
       </c>
       <c r="F82" s="8"/>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
+    <row r="83" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16">
         <v>69</v>
       </c>
       <c r="B83" s="8" t="s">
@@ -11400,15 +11344,15 @@
         <v>2</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+    <row r="84" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="16">
         <v>70</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -11424,15 +11368,15 @@
         <v>1</v>
       </c>
       <c r="F84" s="8"/>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="18" t="s">
         <v>153</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="17">
+    <row r="85" spans="1:8" s="14" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="16">
         <v>71</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -11448,15 +11392,15 @@
         <v>10</v>
       </c>
       <c r="F85" s="8"/>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>154</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
+    <row r="86" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16">
         <v>72</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -11472,15 +11416,15 @@
         <v>1</v>
       </c>
       <c r="F86" s="8"/>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="18" t="s">
         <v>155</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17">
+    <row r="87" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="16">
         <v>73</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -11496,15 +11440,15 @@
         <v>2</v>
       </c>
       <c r="F87" s="8"/>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>156</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
+    <row r="88" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16">
         <v>74.099999999999994</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -11520,15 +11464,15 @@
         <v>10</v>
       </c>
       <c r="F88" s="8"/>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17">
+    <row r="89" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="16">
         <v>74.2</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -11544,15 +11488,15 @@
         <v>10</v>
       </c>
       <c r="F89" s="8"/>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>122</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="17">
+    <row r="90" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
         <v>74.3</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -11568,15 +11512,15 @@
         <v>5</v>
       </c>
       <c r="F90" s="8"/>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="17">
+    <row r="91" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
         <v>74.400000000000006</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -11592,15 +11536,15 @@
         <v>5</v>
       </c>
       <c r="F91" s="8"/>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="18" t="s">
         <v>159</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="17">
+    <row r="92" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="16">
         <v>74.5</v>
       </c>
       <c r="B92" s="8" t="s">
@@ -11616,15 +11560,15 @@
         <v>7</v>
       </c>
       <c r="F92" s="8"/>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="17">
+    <row r="93" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
         <v>74.599999999999994</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -11640,15 +11584,15 @@
         <v>1</v>
       </c>
       <c r="F93" s="8"/>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="18" t="s">
         <v>286</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+    <row r="94" spans="1:8" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
         <v>74.7</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -11664,15 +11608,15 @@
         <v>4</v>
       </c>
       <c r="F94" s="8"/>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="18" t="s">
         <v>285</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="17">
+    <row r="95" spans="1:8" s="14" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="16">
         <v>74.8</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -11688,15 +11632,15 @@
         <v>1</v>
       </c>
       <c r="F95" s="8"/>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="18" t="s">
         <v>283</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
+    <row r="96" spans="1:8" s="14" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="16">
         <v>74.900000000000006</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -11712,15 +11656,15 @@
         <v>2</v>
       </c>
       <c r="F96" s="8"/>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>282</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
+    <row r="97" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="16" t="s">
         <v>276</v>
       </c>
       <c r="B97" s="8" t="s">
@@ -11736,15 +11680,15 @@
         <v>9</v>
       </c>
       <c r="F97" s="8"/>
-      <c r="G97" s="19" t="s">
+      <c r="G97" s="18" t="s">
         <v>280</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
+    <row r="98" spans="1:8" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -11760,15 +11704,15 @@
         <v>5</v>
       </c>
       <c r="F98" s="8"/>
-      <c r="G98" s="19" t="s">
+      <c r="G98" s="18" t="s">
         <v>161</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17">
+    <row r="99" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="16">
         <v>75</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -11784,15 +11728,15 @@
         <v>1</v>
       </c>
       <c r="F99" s="8"/>
-      <c r="G99" s="19" t="s">
+      <c r="G99" s="18" t="s">
         <v>162</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
+    <row r="100" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16" t="s">
         <v>315</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -11808,11 +11752,11 @@
         <v>8</v>
       </c>
       <c r="F100" s="8"/>
-      <c r="G100" s="19"/>
+      <c r="G100" s="18"/>
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
+    <row r="101" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="16" t="s">
         <v>316</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -11828,11 +11772,11 @@
         <v>6</v>
       </c>
       <c r="F101" s="8"/>
-      <c r="G101" s="19"/>
+      <c r="G101" s="18"/>
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
+    <row r="102" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -11848,11 +11792,11 @@
         <v>8</v>
       </c>
       <c r="F102" s="8"/>
-      <c r="G102" s="19"/>
+      <c r="G102" s="18"/>
       <c r="H102" s="12"/>
     </row>
-    <row r="103" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
+    <row r="103" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="16" t="s">
         <v>318</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -11868,77 +11812,77 @@
         <v>6</v>
       </c>
       <c r="F103" s="8"/>
-      <c r="G103" s="19"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="12"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="18"/>
+      <c r="A104" s="17"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="18"/>
+      <c r="A105" s="17"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="18"/>
+      <c r="A106" s="17"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="18"/>
+      <c r="A107" s="17"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="18"/>
+      <c r="A108" s="17"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="17"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="18"/>
+      <c r="A110" s="17"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="18"/>
+      <c r="A111" s="17"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="18"/>
+      <c r="A112" s="17"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18"/>
+      <c r="A113" s="17"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18"/>
+      <c r="A114" s="17"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="18"/>
+      <c r="A115" s="17"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="18"/>
+      <c r="A116" s="17"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="18"/>
+      <c r="A117" s="17"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="18"/>
+      <c r="A118" s="17"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="18"/>
+      <c r="A119" s="17"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="18"/>
+      <c r="A120" s="17"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="18"/>
+      <c r="A121" s="17"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18"/>
+      <c r="A122" s="17"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="18"/>
+      <c r="A123" s="17"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="18"/>
+      <c r="A124" s="17"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="18"/>
+      <c r="A125" s="17"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="18"/>
+      <c r="A126" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
